--- a/Endgültiges/Kostenrechnung.xlsx
+++ b/Endgültiges/Kostenrechnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D292AA0-E794-4D29-9F09-0A058E5C8F12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8824BFC-B454-448B-B385-E39FEE4F1267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D6F9D0D-4BBF-4D5B-B860-0D5959743A1B}"/>
   </bookViews>
@@ -260,7 +260,7 @@
     <numFmt numFmtId="44" formatCode="_-&quot;€&quot;\ * #,##0.00_-;\-&quot;€&quot;\ * #,##0.00_-;_-&quot;€&quot;\ * &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;€&quot;\ #,##0.00"/>
-    <numFmt numFmtId="166" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+    <numFmt numFmtId="165" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -669,25 +669,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -707,66 +689,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -785,7 +713,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -796,21 +724,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -894,46 +807,16 @@
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -943,24 +826,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -972,49 +837,184 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -1332,7 +1332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F90BCB-C38A-4036-ADEE-3E3DA49246B1}">
   <dimension ref="A1:AL31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="115" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="H1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="115" workbookViewId="0">
       <selection activeCell="R11" sqref="R11"/>
     </sheetView>
   </sheetViews>
@@ -1367,601 +1367,601 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="109" t="s">
+      <c r="A1" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="110"/>
-      <c r="C1" s="110"/>
-      <c r="D1" s="110"/>
-      <c r="E1" s="110"/>
-      <c r="F1" s="110"/>
-      <c r="G1" s="111"/>
-      <c r="H1" s="109" t="s">
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="87" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="110"/>
-      <c r="J1" s="110"/>
-      <c r="K1" s="110"/>
-      <c r="L1" s="110"/>
-      <c r="M1" s="110"/>
-      <c r="N1" s="110"/>
-      <c r="O1" s="110"/>
-      <c r="P1" s="110"/>
-      <c r="Q1" s="110"/>
-      <c r="R1" s="110"/>
-      <c r="S1" s="111"/>
-      <c r="T1" s="109" t="s">
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="110"/>
-      <c r="V1" s="110"/>
-      <c r="W1" s="110"/>
-      <c r="X1" s="110"/>
-      <c r="Y1" s="110"/>
-      <c r="Z1" s="111"/>
-      <c r="AA1" s="109" t="s">
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="87" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="110"/>
-      <c r="AC1" s="110"/>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="110"/>
-      <c r="AH1" s="110"/>
-      <c r="AI1" s="110"/>
-      <c r="AJ1" s="110"/>
-      <c r="AK1" s="110"/>
-      <c r="AL1" s="111"/>
+      <c r="AB1" s="88"/>
+      <c r="AC1" s="88"/>
+      <c r="AD1" s="88"/>
+      <c r="AE1" s="88"/>
+      <c r="AF1" s="88"/>
+      <c r="AG1" s="88"/>
+      <c r="AH1" s="88"/>
+      <c r="AI1" s="88"/>
+      <c r="AJ1" s="88"/>
+      <c r="AK1" s="88"/>
+      <c r="AL1" s="89"/>
     </row>
     <row r="2" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="112"/>
-      <c r="B2" s="113"/>
-      <c r="C2" s="113"/>
-      <c r="D2" s="113"/>
-      <c r="E2" s="113"/>
-      <c r="F2" s="113"/>
-      <c r="G2" s="114"/>
-      <c r="H2" s="112"/>
-      <c r="I2" s="113"/>
-      <c r="J2" s="113"/>
-      <c r="K2" s="113"/>
-      <c r="L2" s="113"/>
-      <c r="M2" s="113"/>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
-      <c r="S2" s="114"/>
-      <c r="T2" s="112"/>
-      <c r="U2" s="113"/>
-      <c r="V2" s="113"/>
-      <c r="W2" s="113"/>
-      <c r="X2" s="113"/>
-      <c r="Y2" s="113"/>
-      <c r="Z2" s="114"/>
-      <c r="AA2" s="112"/>
-      <c r="AB2" s="113"/>
-      <c r="AC2" s="113"/>
-      <c r="AD2" s="113"/>
-      <c r="AE2" s="113"/>
-      <c r="AF2" s="113"/>
-      <c r="AG2" s="113"/>
-      <c r="AH2" s="113"/>
-      <c r="AI2" s="113"/>
-      <c r="AJ2" s="113"/>
-      <c r="AK2" s="113"/>
-      <c r="AL2" s="114"/>
+      <c r="A2" s="90"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="90"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="91"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="91"/>
+      <c r="Q2" s="91"/>
+      <c r="R2" s="91"/>
+      <c r="S2" s="92"/>
+      <c r="T2" s="90"/>
+      <c r="U2" s="91"/>
+      <c r="V2" s="91"/>
+      <c r="W2" s="91"/>
+      <c r="X2" s="91"/>
+      <c r="Y2" s="91"/>
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="91"/>
+      <c r="AC2" s="91"/>
+      <c r="AD2" s="91"/>
+      <c r="AE2" s="91"/>
+      <c r="AF2" s="91"/>
+      <c r="AG2" s="91"/>
+      <c r="AH2" s="91"/>
+      <c r="AI2" s="91"/>
+      <c r="AJ2" s="91"/>
+      <c r="AK2" s="91"/>
+      <c r="AL2" s="92"/>
     </row>
     <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="8">
         <v>858</v>
       </c>
-      <c r="U4" s="13" t="s">
+      <c r="U4" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="V4" s="14">
+      <c r="V4" s="8">
         <v>858</v>
       </c>
     </row>
     <row r="5" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="8">
         <f>G14</f>
         <v>1927.1999999999998</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="84" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="5"/>
-      <c r="R5" s="6" t="s">
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="S5" s="21">
+      <c r="S5" s="15">
         <f>I9+I9*I10</f>
         <v>124.2</v>
       </c>
-      <c r="T5" s="23"/>
-      <c r="U5" s="13" t="s">
+      <c r="T5" s="17"/>
+      <c r="U5" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="V5" s="14">
+      <c r="V5" s="8">
         <f>Z14</f>
         <v>601.6</v>
       </c>
-      <c r="AA5" s="3" t="s">
+      <c r="AA5" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="AB5" s="4"/>
-      <c r="AC5" s="4"/>
-      <c r="AD5" s="4"/>
-      <c r="AE5" s="4"/>
-      <c r="AF5" s="4"/>
-      <c r="AG5" s="4"/>
-      <c r="AH5" s="4"/>
-      <c r="AI5" s="4"/>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="6" t="s">
+      <c r="AB5" s="85"/>
+      <c r="AC5" s="85"/>
+      <c r="AD5" s="85"/>
+      <c r="AE5" s="85"/>
+      <c r="AF5" s="85"/>
+      <c r="AG5" s="85"/>
+      <c r="AH5" s="85"/>
+      <c r="AI5" s="85"/>
+      <c r="AJ5" s="86"/>
+      <c r="AK5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AL5" s="21">
+      <c r="AL5" s="15">
         <f>AB9+AB9*AB10</f>
         <v>280.60000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="8">
         <f>G29</f>
         <v>3.024</v>
       </c>
-      <c r="H6" s="123" t="s">
+      <c r="H6" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="120"/>
-      <c r="J6" s="26" t="s">
+      <c r="I6" s="103"/>
+      <c r="J6" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="101" t="s">
+      <c r="K6" s="109"/>
+      <c r="L6" s="109"/>
+      <c r="M6" s="110"/>
+      <c r="N6" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="102"/>
-      <c r="P6" s="102"/>
-      <c r="Q6" s="103"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="10"/>
-      <c r="U6" s="13" t="s">
+      <c r="O6" s="118"/>
+      <c r="P6" s="118"/>
+      <c r="Q6" s="119"/>
+      <c r="R6" s="54"/>
+      <c r="S6" s="4"/>
+      <c r="U6" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="V6" s="14">
+      <c r="V6" s="8">
         <f>Z21</f>
         <v>75.983999999999995</v>
       </c>
-      <c r="AA6" s="123" t="s">
+      <c r="AA6" s="102" t="s">
         <v>54</v>
       </c>
-      <c r="AB6" s="120"/>
-      <c r="AC6" s="26" t="s">
+      <c r="AB6" s="103"/>
+      <c r="AC6" s="108" t="s">
         <v>44</v>
       </c>
-      <c r="AD6" s="38"/>
-      <c r="AE6" s="38"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="101" t="s">
+      <c r="AD6" s="109"/>
+      <c r="AE6" s="109"/>
+      <c r="AF6" s="110"/>
+      <c r="AG6" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="AH6" s="102"/>
-      <c r="AI6" s="102"/>
-      <c r="AJ6" s="103"/>
-      <c r="AK6" s="83"/>
-      <c r="AL6" s="10"/>
+      <c r="AH6" s="118"/>
+      <c r="AI6" s="118"/>
+      <c r="AJ6" s="119"/>
+      <c r="AK6" s="54"/>
+      <c r="AL6" s="4"/>
     </row>
     <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="8">
         <f>S5</f>
         <v>124.2</v>
       </c>
-      <c r="H7" s="124"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="40"/>
-      <c r="K7" s="94"/>
-      <c r="L7" s="94"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="30">
+      <c r="H7" s="104"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="111"/>
+      <c r="K7" s="112"/>
+      <c r="L7" s="112"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="120">
         <v>2</v>
       </c>
-      <c r="O7" s="93"/>
-      <c r="P7" s="93"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="10"/>
-      <c r="U7" s="13" t="s">
+      <c r="O7" s="121"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="122"/>
+      <c r="R7" s="4"/>
+      <c r="U7" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="V7" s="92">
+      <c r="V7" s="60">
         <f>AL5+AL17</f>
         <v>1499.6</v>
       </c>
-      <c r="AA7" s="124"/>
-      <c r="AB7" s="121"/>
-      <c r="AC7" s="40"/>
-      <c r="AD7" s="94"/>
-      <c r="AE7" s="94"/>
-      <c r="AF7" s="41"/>
-      <c r="AG7" s="30">
+      <c r="AA7" s="104"/>
+      <c r="AB7" s="105"/>
+      <c r="AC7" s="111"/>
+      <c r="AD7" s="112"/>
+      <c r="AE7" s="112"/>
+      <c r="AF7" s="113"/>
+      <c r="AG7" s="120">
         <v>4</v>
       </c>
-      <c r="AH7" s="93"/>
-      <c r="AI7" s="93"/>
-      <c r="AJ7" s="31"/>
-      <c r="AK7" s="10"/>
-      <c r="AL7" s="10"/>
+      <c r="AH7" s="121"/>
+      <c r="AI7" s="121"/>
+      <c r="AJ7" s="122"/>
+      <c r="AK7" s="4"/>
+      <c r="AL7" s="4"/>
     </row>
     <row r="8" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="92">
+      <c r="C8" s="60">
         <v>100</v>
       </c>
-      <c r="D8" s="116" t="s">
+      <c r="D8" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="125"/>
-      <c r="I8" s="122"/>
-      <c r="J8" s="42"/>
-      <c r="K8" s="43"/>
-      <c r="L8" s="43"/>
-      <c r="M8" s="44"/>
-      <c r="N8" s="52"/>
-      <c r="O8" s="54"/>
-      <c r="P8" s="54"/>
-      <c r="Q8" s="53"/>
-      <c r="R8" s="20"/>
-      <c r="U8" s="13" t="s">
+      <c r="H8" s="106"/>
+      <c r="I8" s="107"/>
+      <c r="J8" s="114"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="28"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="14"/>
+      <c r="U8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="V8" s="14">
+      <c r="V8" s="8">
         <v>100</v>
       </c>
-      <c r="W8" s="116" t="s">
+      <c r="W8" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="AA8" s="125"/>
-      <c r="AB8" s="122"/>
-      <c r="AC8" s="42"/>
-      <c r="AD8" s="43"/>
-      <c r="AE8" s="43"/>
-      <c r="AF8" s="44"/>
-      <c r="AG8" s="52"/>
-      <c r="AH8" s="54"/>
-      <c r="AI8" s="54"/>
-      <c r="AJ8" s="53"/>
-      <c r="AK8" s="20"/>
-      <c r="AL8" s="10"/>
+      <c r="AA8" s="106"/>
+      <c r="AB8" s="107"/>
+      <c r="AC8" s="114"/>
+      <c r="AD8" s="115"/>
+      <c r="AE8" s="115"/>
+      <c r="AF8" s="116"/>
+      <c r="AG8" s="28"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="30"/>
+      <c r="AJ8" s="29"/>
+      <c r="AK8" s="14"/>
+      <c r="AL8" s="4"/>
     </row>
     <row r="9" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="105" t="s">
+      <c r="B9" s="66" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="92">
+      <c r="C9" s="60">
         <v>300</v>
       </c>
-      <c r="D9" s="116" t="s">
+      <c r="D9" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="45"/>
-      <c r="I9" s="46">
+      <c r="H9" s="21"/>
+      <c r="I9" s="22">
         <f>N7*N10+((J14*M14)+(J14*L14))*N7</f>
         <v>108</v>
       </c>
-      <c r="J9" s="26" t="s">
+      <c r="J9" s="108" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="45" t="s">
+      <c r="K9" s="123"/>
+      <c r="L9" s="123"/>
+      <c r="M9" s="124"/>
+      <c r="N9" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="48"/>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="47"/>
-      <c r="R9" s="23"/>
-      <c r="U9" s="115" t="s">
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="23"/>
+      <c r="R9" s="17"/>
+      <c r="U9" s="70" t="s">
         <v>62</v>
       </c>
-      <c r="V9" s="92">
+      <c r="V9" s="60">
         <v>250</v>
       </c>
-      <c r="W9" s="116" t="s">
+      <c r="W9" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="AA9" s="45"/>
-      <c r="AB9" s="46">
+      <c r="AA9" s="21"/>
+      <c r="AB9" s="22">
         <f>AG7*AG10+((AC14*AF14)+(AC14*AE14))*AG7</f>
         <v>244</v>
       </c>
-      <c r="AC9" s="26" t="s">
+      <c r="AC9" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="AD9" s="27"/>
-      <c r="AE9" s="27"/>
-      <c r="AF9" s="25"/>
-      <c r="AG9" s="45" t="s">
+      <c r="AD9" s="123"/>
+      <c r="AE9" s="123"/>
+      <c r="AF9" s="124"/>
+      <c r="AG9" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="AH9" s="48"/>
-      <c r="AI9" s="48"/>
-      <c r="AJ9" s="47"/>
-      <c r="AK9" s="23"/>
-      <c r="AL9" s="10"/>
+      <c r="AH9" s="24"/>
+      <c r="AI9" s="24"/>
+      <c r="AJ9" s="23"/>
+      <c r="AK9" s="17"/>
+      <c r="AL9" s="4"/>
     </row>
     <row r="10" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="108" t="s">
+      <c r="B10" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="12">
         <f>SUM(C4:C9)</f>
         <v>3312.4239999999995</v>
       </c>
-      <c r="H10" s="49" t="s">
+      <c r="H10" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="104">
+      <c r="I10" s="65">
         <v>0.15</v>
       </c>
-      <c r="J10" s="28"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="51">
+      <c r="J10" s="125"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="27">
         <v>24</v>
       </c>
-      <c r="O10" s="95"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="50"/>
-      <c r="R10" s="23"/>
-      <c r="U10" s="107" t="s">
+      <c r="O10" s="61"/>
+      <c r="P10" s="61"/>
+      <c r="Q10" s="26"/>
+      <c r="R10" s="17"/>
+      <c r="U10" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="V10" s="18">
+      <c r="V10" s="12">
         <f>SUM(V4:V9)</f>
         <v>3385.1839999999997</v>
       </c>
-      <c r="AA10" s="49" t="s">
+      <c r="AA10" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AB10" s="104">
+      <c r="AB10" s="65">
         <v>0.15</v>
       </c>
-      <c r="AC10" s="28"/>
-      <c r="AD10" s="32"/>
-      <c r="AE10" s="32"/>
-      <c r="AF10" s="29"/>
-      <c r="AG10" s="51">
+      <c r="AC10" s="125"/>
+      <c r="AD10" s="126"/>
+      <c r="AE10" s="126"/>
+      <c r="AF10" s="127"/>
+      <c r="AG10" s="27">
         <v>36</v>
       </c>
-      <c r="AH10" s="95"/>
-      <c r="AI10" s="95"/>
-      <c r="AJ10" s="50"/>
-      <c r="AK10" s="23"/>
-      <c r="AL10" s="10"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="61"/>
+      <c r="AJ10" s="26"/>
+      <c r="AK10" s="17"/>
+      <c r="AL10" s="4"/>
     </row>
     <row r="11" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="H11" s="52"/>
-      <c r="I11" s="87"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="34"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="AA11" s="52"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="33"/>
-      <c r="AD11" s="96"/>
-      <c r="AE11" s="96"/>
-      <c r="AF11" s="29"/>
-      <c r="AG11" s="52"/>
-      <c r="AH11" s="54"/>
-      <c r="AI11" s="54"/>
-      <c r="AJ11" s="53"/>
-      <c r="AK11" s="10"/>
-      <c r="AL11" s="10"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="134"/>
+      <c r="L11" s="134"/>
+      <c r="M11" s="135"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="AA11" s="28"/>
+      <c r="AB11" s="58"/>
+      <c r="AC11" s="128"/>
+      <c r="AD11" s="129"/>
+      <c r="AE11" s="129"/>
+      <c r="AF11" s="127"/>
+      <c r="AG11" s="28"/>
+      <c r="AH11" s="30"/>
+      <c r="AI11" s="30"/>
+      <c r="AJ11" s="29"/>
+      <c r="AK11" s="4"/>
+      <c r="AL11" s="4"/>
     </row>
     <row r="12" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="88" t="s">
+      <c r="H12" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="134" t="s">
+      <c r="J12" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="90" t="s">
+      <c r="K12" s="96" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="56" t="s">
+      <c r="L12" s="96"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="56"/>
-      <c r="P12" s="58"/>
-      <c r="Q12" s="55" t="s">
+      <c r="O12" s="97"/>
+      <c r="P12" s="95"/>
+      <c r="Q12" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="AA12" s="88" t="s">
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="AA12" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="AB12" s="57" t="s">
+      <c r="AB12" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="AC12" s="134" t="s">
+      <c r="AC12" s="133" t="s">
         <v>34</v>
       </c>
-      <c r="AD12" s="58" t="s">
+      <c r="AD12" s="95" t="s">
         <v>35</v>
       </c>
-      <c r="AE12" s="90"/>
-      <c r="AF12" s="90"/>
-      <c r="AG12" s="56" t="s">
+      <c r="AE12" s="96"/>
+      <c r="AF12" s="96"/>
+      <c r="AG12" s="97" t="s">
         <v>36</v>
       </c>
-      <c r="AH12" s="56"/>
-      <c r="AI12" s="58"/>
-      <c r="AJ12" s="55" t="s">
+      <c r="AH12" s="97"/>
+      <c r="AI12" s="95"/>
+      <c r="AJ12" s="98" t="s">
         <v>37</v>
       </c>
-      <c r="AK12" s="10"/>
-      <c r="AL12" s="10"/>
+      <c r="AK12" s="4"/>
+      <c r="AL12" s="4"/>
     </row>
     <row r="13" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="9"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="136"/>
       <c r="F13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="16">
         <v>0.8</v>
       </c>
-      <c r="H13" s="89"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="134"/>
-      <c r="K13" s="130"/>
-      <c r="L13" s="60" t="s">
+      <c r="H13" s="131"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="133"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="M13" s="131" t="s">
+      <c r="M13" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="N13" s="60" t="s">
+      <c r="N13" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="60" t="s">
+      <c r="O13" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="60" t="s">
+      <c r="P13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="59"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="7" t="s">
+      <c r="Q13" s="99"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="V13" s="8"/>
-      <c r="W13" s="8"/>
-      <c r="X13" s="9"/>
+      <c r="V13" s="101"/>
+      <c r="W13" s="101"/>
+      <c r="X13" s="136"/>
       <c r="Y13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Z13" s="24">
+      <c r="Z13" s="18">
         <v>0.8</v>
       </c>
-      <c r="AA13" s="89"/>
-      <c r="AB13" s="57"/>
-      <c r="AC13" s="134"/>
-      <c r="AD13" s="130"/>
-      <c r="AE13" s="60" t="s">
+      <c r="AA13" s="131"/>
+      <c r="AB13" s="132"/>
+      <c r="AC13" s="133"/>
+      <c r="AD13" s="78"/>
+      <c r="AE13" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="AF13" s="131" t="s">
+      <c r="AF13" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="AG13" s="60" t="s">
+      <c r="AG13" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="AH13" s="60" t="s">
+      <c r="AH13" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AI13" s="60" t="s">
+      <c r="AI13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AJ13" s="59"/>
-      <c r="AK13" s="10"/>
-      <c r="AL13" s="10"/>
+      <c r="AJ13" s="99"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
     </row>
     <row r="14" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="127" t="s">
+      <c r="B14" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="127" t="s">
+      <c r="C14" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="127" t="s">
+      <c r="D14" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="127" t="s">
+      <c r="E14" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="6" t="s">
+      <c r="F14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="98">
+      <c r="G14" s="63">
         <f>SUM(E16:E25)</f>
         <v>1927.1999999999998</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="8">
         <v>50</v>
       </c>
-      <c r="K14" s="136"/>
-      <c r="L14" s="13">
+      <c r="K14" s="83"/>
+      <c r="L14" s="7">
         <v>0.2</v>
       </c>
-      <c r="M14" s="126">
+      <c r="M14" s="75">
         <v>0.4</v>
       </c>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13"/>
-      <c r="Q14" s="13">
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7">
         <v>1</v>
       </c>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="23"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="17"/>
       <c r="U14" s="2" t="s">
         <v>1</v>
       </c>
@@ -1974,40 +1974,40 @@
       <c r="X14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Y14" s="6" t="s">
+      <c r="Y14" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Z14" s="18">
+      <c r="Z14" s="12">
         <f>SUM(X16:X17)</f>
         <v>601.6</v>
       </c>
-      <c r="AA14" s="13">
+      <c r="AA14" s="7">
         <v>1</v>
       </c>
-      <c r="AB14" s="107" t="s">
+      <c r="AB14" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="AC14" s="14">
+      <c r="AC14" s="8">
         <v>50</v>
       </c>
-      <c r="AD14" s="135"/>
-      <c r="AE14" s="13">
+      <c r="AD14" s="82"/>
+      <c r="AE14" s="7">
         <v>0.2</v>
       </c>
-      <c r="AF14" s="126">
+      <c r="AF14" s="75">
         <v>0.3</v>
       </c>
-      <c r="AG14" s="13"/>
-      <c r="AH14" s="13"/>
-      <c r="AI14" s="13"/>
-      <c r="AJ14" s="13">
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7">
         <v>1</v>
       </c>
-      <c r="AK14" s="10"/>
-      <c r="AL14" s="10"/>
+      <c r="AK14" s="4"/>
+      <c r="AL14" s="4"/>
     </row>
     <row r="15" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="11"/>
+      <c r="B15" s="5"/>
       <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
@@ -2017,20 +2017,20 @@
       <c r="E15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="83"/>
-      <c r="I15" s="83"/>
-      <c r="J15" s="83"/>
-      <c r="K15" s="83"/>
-      <c r="L15" s="83"/>
-      <c r="M15" s="83"/>
-      <c r="N15" s="83"/>
-      <c r="O15" s="83"/>
-      <c r="P15" s="83"/>
-      <c r="Q15" s="83"/>
-      <c r="R15" s="83"/>
-      <c r="S15" s="106"/>
-      <c r="T15" s="23"/>
-      <c r="U15" s="11"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="54"/>
+      <c r="Q15" s="54"/>
+      <c r="R15" s="54"/>
+      <c r="S15" s="67"/>
+      <c r="T15" s="17"/>
+      <c r="U15" s="5"/>
       <c r="V15" s="1" t="s">
         <v>31</v>
       </c>
@@ -2042,196 +2042,196 @@
       </c>
     </row>
     <row r="16" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="10">
         <v>1</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="10">
         <v>168</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="11">
         <f>(G13*D16)*C16</f>
         <v>134.4</v>
       </c>
-      <c r="F16" s="15"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="16" t="s">
+      <c r="F16" s="9"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="V16" s="16">
+      <c r="V16" s="10">
         <v>2</v>
       </c>
-      <c r="W16" s="16">
+      <c r="W16" s="10">
         <v>188</v>
       </c>
-      <c r="X16" s="17">
+      <c r="X16" s="11">
         <f>(Z13*W16)*V16</f>
         <v>300.8</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="13">
+      <c r="C17" s="7">
         <v>2</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="7">
         <v>58</v>
       </c>
-      <c r="E17" s="17">
+      <c r="E17" s="11">
         <f>(G13*D17)*C17</f>
         <v>92.800000000000011</v>
       </c>
-      <c r="T17" s="10"/>
-      <c r="U17" s="13" t="s">
+      <c r="T17" s="4"/>
+      <c r="U17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="V17" s="13">
+      <c r="V17" s="7">
         <v>2</v>
       </c>
-      <c r="W17" s="13">
+      <c r="W17" s="7">
         <v>188</v>
       </c>
-      <c r="X17" s="14">
+      <c r="X17" s="8">
         <f>(Z13*W17)*V17</f>
         <v>300.8</v>
       </c>
-      <c r="AA17" s="7" t="s">
+      <c r="AA17" s="100" t="s">
         <v>55</v>
       </c>
-      <c r="AB17" s="8"/>
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="5"/>
-      <c r="AK17" s="6" t="s">
+      <c r="AB17" s="101"/>
+      <c r="AC17" s="85"/>
+      <c r="AD17" s="85"/>
+      <c r="AE17" s="85"/>
+      <c r="AF17" s="85"/>
+      <c r="AG17" s="85"/>
+      <c r="AH17" s="85"/>
+      <c r="AI17" s="85"/>
+      <c r="AJ17" s="86"/>
+      <c r="AK17" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="AL17" s="21">
+      <c r="AL17" s="15">
         <f>AB21+AB21*AB22</f>
         <v>1219</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="13">
+      <c r="C18" s="7">
         <v>2</v>
       </c>
-      <c r="D18" s="13">
+      <c r="D18" s="7">
         <v>389</v>
       </c>
-      <c r="E18" s="17">
+      <c r="E18" s="11">
         <f>(G13*D18)*C18</f>
         <v>622.40000000000009</v>
       </c>
-      <c r="T18" s="10"/>
-      <c r="AA18" s="99" t="s">
+      <c r="T18" s="4"/>
+      <c r="AA18" s="93" t="s">
         <v>56</v>
       </c>
-      <c r="AB18" s="99"/>
-      <c r="AC18" s="62" t="s">
+      <c r="AB18" s="93"/>
+      <c r="AC18" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="AD18" s="70"/>
-      <c r="AE18" s="70"/>
-      <c r="AF18" s="71"/>
-      <c r="AG18" s="84" t="s">
+      <c r="AD18" s="41"/>
+      <c r="AE18" s="41"/>
+      <c r="AF18" s="42"/>
+      <c r="AG18" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="AH18" s="85"/>
-      <c r="AI18" s="85"/>
-      <c r="AJ18" s="86"/>
-      <c r="AK18" s="83"/>
-      <c r="AL18" s="10"/>
+      <c r="AH18" s="56"/>
+      <c r="AI18" s="56"/>
+      <c r="AJ18" s="57"/>
+      <c r="AK18" s="54"/>
+      <c r="AL18" s="4"/>
     </row>
     <row r="19" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="13">
+      <c r="C19" s="7">
         <v>2</v>
       </c>
-      <c r="D19" s="13">
+      <c r="D19" s="7">
         <v>112</v>
       </c>
-      <c r="E19" s="17">
+      <c r="E19" s="11">
         <f>(G13*D19)*C19</f>
         <v>179.20000000000002</v>
       </c>
-      <c r="AA19" s="99"/>
-      <c r="AB19" s="99"/>
-      <c r="AC19" s="72"/>
-      <c r="AD19" s="97"/>
-      <c r="AE19" s="97"/>
-      <c r="AF19" s="73"/>
-      <c r="AG19" s="66">
+      <c r="AA19" s="93"/>
+      <c r="AB19" s="93"/>
+      <c r="AC19" s="43"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="44"/>
+      <c r="AG19" s="37">
         <v>4</v>
       </c>
-      <c r="AH19" s="100"/>
-      <c r="AI19" s="100"/>
-      <c r="AJ19" s="67"/>
-      <c r="AK19" s="10"/>
-      <c r="AL19" s="10"/>
+      <c r="AH19" s="64"/>
+      <c r="AI19" s="64"/>
+      <c r="AJ19" s="38"/>
+      <c r="AK19" s="4"/>
+      <c r="AL19" s="4"/>
     </row>
     <row r="20" spans="2:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="13">
+      <c r="C20" s="7">
         <v>1</v>
       </c>
-      <c r="D20" s="13">
+      <c r="D20" s="7">
         <v>240</v>
       </c>
-      <c r="E20" s="17">
+      <c r="E20" s="11">
         <f>(G13*D20)*C20</f>
         <v>192</v>
       </c>
-      <c r="U20" s="3" t="s">
+      <c r="U20" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="V20" s="4"/>
-      <c r="W20" s="4"/>
-      <c r="X20" s="5"/>
+      <c r="V20" s="85"/>
+      <c r="W20" s="85"/>
+      <c r="X20" s="86"/>
       <c r="Y20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z20" s="24">
+      <c r="Z20" s="18">
         <v>12</v>
       </c>
-      <c r="AA20" s="128"/>
-      <c r="AB20" s="99"/>
-      <c r="AC20" s="74"/>
-      <c r="AD20" s="75"/>
-      <c r="AE20" s="75"/>
-      <c r="AF20" s="76"/>
-      <c r="AG20" s="52"/>
-      <c r="AH20" s="54"/>
-      <c r="AI20" s="54"/>
-      <c r="AJ20" s="53"/>
-      <c r="AK20" s="20"/>
-      <c r="AL20" s="10"/>
+      <c r="AA20" s="94"/>
+      <c r="AB20" s="93"/>
+      <c r="AC20" s="45"/>
+      <c r="AD20" s="46"/>
+      <c r="AE20" s="46"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="28"/>
+      <c r="AH20" s="30"/>
+      <c r="AI20" s="30"/>
+      <c r="AJ20" s="29"/>
+      <c r="AK20" s="14"/>
+      <c r="AL20" s="4"/>
     </row>
     <row r="21" spans="2:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="7">
         <v>2</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="7">
         <v>61</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="11">
         <f>(G13*D21)*C21</f>
         <v>97.600000000000009</v>
       </c>
@@ -2247,322 +2247,322 @@
       <c r="X21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Y21" s="6" t="s">
+      <c r="Y21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="Z21" s="18">
+      <c r="Z21" s="12">
         <f>SUM(X23:X28)</f>
         <v>75.983999999999995</v>
       </c>
-      <c r="AA21" s="45"/>
-      <c r="AB21" s="46">
+      <c r="AA21" s="21"/>
+      <c r="AB21" s="22">
         <f>AG19*AG22+((AC26*AF26)+(AC26*AE26))*AG19</f>
         <v>1060</v>
       </c>
-      <c r="AC21" s="62" t="s">
+      <c r="AC21" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AD21" s="63"/>
-      <c r="AE21" s="63"/>
-      <c r="AF21" s="61"/>
-      <c r="AG21" s="45" t="s">
+      <c r="AD21" s="34"/>
+      <c r="AE21" s="34"/>
+      <c r="AF21" s="32"/>
+      <c r="AG21" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="AH21" s="48"/>
-      <c r="AI21" s="48"/>
-      <c r="AJ21" s="47"/>
-      <c r="AK21" s="23"/>
-      <c r="AL21" s="10"/>
+      <c r="AH21" s="24"/>
+      <c r="AI21" s="24"/>
+      <c r="AJ21" s="23"/>
+      <c r="AK21" s="17"/>
+      <c r="AL21" s="4"/>
     </row>
     <row r="22" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="13">
+      <c r="C22" s="7">
         <v>2</v>
       </c>
-      <c r="D22" s="13">
+      <c r="D22" s="7">
         <v>71</v>
       </c>
-      <c r="E22" s="17">
+      <c r="E22" s="11">
         <f>(G13*D22)*C22</f>
         <v>113.60000000000001</v>
       </c>
-      <c r="U22" s="12"/>
-      <c r="V22" s="19" t="s">
+      <c r="U22" s="6"/>
+      <c r="V22" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="W22" s="19" t="s">
+      <c r="W22" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="X22" s="19" t="s">
+      <c r="X22" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="AA22" s="49" t="s">
+      <c r="AA22" s="25" t="s">
         <v>58</v>
       </c>
-      <c r="AB22" s="104">
+      <c r="AB22" s="65">
         <v>0.15</v>
       </c>
-      <c r="AC22" s="64"/>
-      <c r="AD22" s="68"/>
-      <c r="AE22" s="68"/>
-      <c r="AF22" s="65"/>
-      <c r="AG22" s="51">
+      <c r="AC22" s="35"/>
+      <c r="AD22" s="39"/>
+      <c r="AE22" s="39"/>
+      <c r="AF22" s="36"/>
+      <c r="AG22" s="27">
         <v>240</v>
       </c>
-      <c r="AH22" s="95"/>
-      <c r="AI22" s="95"/>
-      <c r="AJ22" s="50"/>
-      <c r="AK22" s="23"/>
-      <c r="AL22" s="10"/>
+      <c r="AH22" s="61"/>
+      <c r="AI22" s="61"/>
+      <c r="AJ22" s="26"/>
+      <c r="AK22" s="17"/>
+      <c r="AL22" s="4"/>
     </row>
     <row r="23" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="13">
+      <c r="C23" s="7">
         <v>4</v>
       </c>
-      <c r="D23" s="13">
+      <c r="D23" s="7">
         <v>93</v>
       </c>
-      <c r="E23" s="17">
+      <c r="E23" s="11">
         <f>(G13*D23)*C23</f>
         <v>297.60000000000002</v>
       </c>
-      <c r="U23" s="13" t="s">
+      <c r="U23" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="V23" s="13">
+      <c r="V23" s="7">
         <v>2</v>
       </c>
-      <c r="W23" s="13">
+      <c r="W23" s="7">
         <v>0.32</v>
       </c>
-      <c r="X23" s="14">
+      <c r="X23" s="8">
         <f>(Z20*W23)*V23</f>
         <v>7.68</v>
       </c>
-      <c r="AA23" s="52"/>
-      <c r="AB23" s="87"/>
-      <c r="AC23" s="35"/>
-      <c r="AD23" s="69"/>
-      <c r="AE23" s="69"/>
-      <c r="AF23" s="36"/>
-      <c r="AG23" s="52"/>
-      <c r="AH23" s="54"/>
-      <c r="AI23" s="54"/>
-      <c r="AJ23" s="53"/>
-      <c r="AK23" s="10"/>
-      <c r="AL23" s="10"/>
+      <c r="AA23" s="28"/>
+      <c r="AB23" s="58"/>
+      <c r="AC23" s="19"/>
+      <c r="AD23" s="40"/>
+      <c r="AE23" s="40"/>
+      <c r="AF23" s="20"/>
+      <c r="AG23" s="28"/>
+      <c r="AH23" s="30"/>
+      <c r="AI23" s="30"/>
+      <c r="AJ23" s="29"/>
+      <c r="AK23" s="4"/>
+      <c r="AL23" s="4"/>
     </row>
     <row r="24" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="13" t="s">
+      <c r="B24" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="13">
+      <c r="C24" s="7">
         <v>1</v>
       </c>
-      <c r="D24" s="13">
+      <c r="D24" s="7">
         <v>146</v>
       </c>
-      <c r="E24" s="17">
+      <c r="E24" s="11">
         <f>(G13*D24)*C24</f>
         <v>116.80000000000001</v>
       </c>
-      <c r="U24" s="13" t="s">
+      <c r="U24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="V24" s="13">
+      <c r="V24" s="7">
         <v>2</v>
       </c>
-      <c r="W24" s="13">
+      <c r="W24" s="7">
         <v>0.34699999999999998</v>
       </c>
-      <c r="X24" s="14">
+      <c r="X24" s="8">
         <f>(Z20*W24)*V24</f>
         <v>8.3279999999999994</v>
       </c>
-      <c r="AA24" s="117" t="s">
+      <c r="AA24" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="AB24" s="118" t="s">
+      <c r="AB24" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="AC24" s="78" t="s">
+      <c r="AC24" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="AD24" s="90" t="s">
+      <c r="AD24" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="AE24" s="90"/>
-      <c r="AF24" s="90"/>
-      <c r="AG24" s="80" t="s">
+      <c r="AE24" s="96"/>
+      <c r="AF24" s="96"/>
+      <c r="AG24" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="AH24" s="79"/>
-      <c r="AI24" s="81"/>
-      <c r="AJ24" s="77" t="s">
+      <c r="AH24" s="50"/>
+      <c r="AI24" s="52"/>
+      <c r="AJ24" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="AK24" s="10"/>
-      <c r="AL24" s="10"/>
+      <c r="AK24" s="4"/>
+      <c r="AL24" s="4"/>
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
+      <c r="B25" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="13">
+      <c r="C25" s="7">
         <v>1</v>
       </c>
-      <c r="D25" s="13">
+      <c r="D25" s="7">
         <v>101</v>
       </c>
-      <c r="E25" s="17">
+      <c r="E25" s="11">
         <f>(G13*D25)*C25</f>
         <v>80.800000000000011</v>
       </c>
-      <c r="U25" s="13" t="s">
+      <c r="U25" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="V25" s="13">
+      <c r="V25" s="7">
         <v>4</v>
       </c>
-      <c r="W25" s="13">
+      <c r="W25" s="7">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="X25" s="14">
+      <c r="X25" s="8">
         <f>(Z20*W25)*V25</f>
         <v>2.496</v>
       </c>
-      <c r="AA25" s="119"/>
-      <c r="AB25" s="80"/>
-      <c r="AC25" s="132"/>
-      <c r="AD25" s="129"/>
-      <c r="AE25" s="133" t="s">
+      <c r="AA25" s="74"/>
+      <c r="AB25" s="51"/>
+      <c r="AC25" s="80"/>
+      <c r="AD25" s="77"/>
+      <c r="AE25" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="AF25" s="131" t="s">
+      <c r="AF25" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="AG25" s="60" t="s">
+      <c r="AG25" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="AH25" s="60" t="s">
+      <c r="AH25" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="AI25" s="60" t="s">
+      <c r="AI25" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AJ25" s="82"/>
-      <c r="AK25" s="10"/>
-      <c r="AL25" s="10"/>
+      <c r="AJ25" s="53"/>
+      <c r="AK25" s="4"/>
+      <c r="AL25" s="4"/>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="U26" s="13" t="s">
+      <c r="U26" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="V26" s="13">
+      <c r="V26" s="7">
         <v>2</v>
       </c>
-      <c r="W26" s="13">
+      <c r="W26" s="7">
         <v>1.5780000000000001</v>
       </c>
-      <c r="X26" s="14">
+      <c r="X26" s="8">
         <f>(Z20*W26)*V26</f>
         <v>37.872</v>
       </c>
-      <c r="AA26" s="13">
+      <c r="AA26" s="7">
         <v>1</v>
       </c>
-      <c r="AB26" s="107" t="s">
+      <c r="AB26" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="AC26" s="14">
+      <c r="AC26" s="8">
         <v>50</v>
       </c>
-      <c r="AD26" s="135"/>
-      <c r="AE26" s="13">
+      <c r="AD26" s="82"/>
+      <c r="AE26" s="7">
         <v>0.2</v>
       </c>
-      <c r="AF26" s="126">
+      <c r="AF26" s="75">
         <v>0.3</v>
       </c>
-      <c r="AG26" s="13"/>
-      <c r="AH26" s="13"/>
-      <c r="AI26" s="13"/>
-      <c r="AJ26" s="13">
+      <c r="AG26" s="7"/>
+      <c r="AH26" s="7"/>
+      <c r="AI26" s="7"/>
+      <c r="AJ26" s="7">
         <v>1</v>
       </c>
-      <c r="AK26" s="10"/>
-      <c r="AL26" s="10"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
     </row>
     <row r="27" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U27" s="13" t="s">
+      <c r="U27" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="V27" s="13">
+      <c r="V27" s="7">
         <v>2</v>
       </c>
-      <c r="W27" s="13">
+      <c r="W27" s="7">
         <v>0.72599999999999998</v>
       </c>
-      <c r="X27" s="14">
+      <c r="X27" s="8">
         <f>(Z20*W27)*V27</f>
         <v>17.423999999999999</v>
       </c>
     </row>
     <row r="28" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="84" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
+      <c r="C28" s="85"/>
+      <c r="D28" s="85"/>
+      <c r="E28" s="86"/>
       <c r="F28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="18">
         <v>12</v>
       </c>
-      <c r="U28" s="13" t="s">
+      <c r="U28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="V28" s="13">
+      <c r="V28" s="7">
         <v>1</v>
       </c>
-      <c r="W28" s="13">
+      <c r="W28" s="7">
         <v>0.182</v>
       </c>
-      <c r="X28" s="14">
+      <c r="X28" s="8">
         <f>(Z20*W28)*V28</f>
         <v>2.1840000000000002</v>
       </c>
     </row>
     <row r="29" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="127" t="s">
+      <c r="B29" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="127" t="s">
+      <c r="C29" s="76" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="127" t="s">
+      <c r="D29" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="127" t="s">
+      <c r="E29" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="6" t="s">
+      <c r="F29" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="18">
+      <c r="G29" s="12">
         <f>SUM(E31)</f>
         <v>3.024</v>
       </c>
     </row>
     <row r="30" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="11"/>
+      <c r="B30" s="5"/>
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
@@ -2574,22 +2574,41 @@
       </c>
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="16">
+      <c r="C31" s="10">
         <v>2</v>
       </c>
-      <c r="D31" s="16">
+      <c r="D31" s="10">
         <v>0.126</v>
       </c>
-      <c r="E31" s="17">
+      <c r="E31" s="11">
         <f>(G28*D31)*C31</f>
         <v>3.024</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="J9:M11"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="H6:I8"/>
+    <mergeCell ref="J6:M8"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="AC9:AF11"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="AC12:AC13"/>
     <mergeCell ref="U20:X20"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="T1:Z2"/>
@@ -2606,25 +2625,6 @@
     <mergeCell ref="AA6:AB8"/>
     <mergeCell ref="AC6:AF8"/>
     <mergeCell ref="AG6:AJ6"/>
-    <mergeCell ref="AG7:AJ7"/>
-    <mergeCell ref="AC9:AF11"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="H6:I8"/>
-    <mergeCell ref="J6:M8"/>
-    <mergeCell ref="J9:M11"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="B13:E13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Endgültiges/Kostenrechnung.xlsx
+++ b/Endgültiges/Kostenrechnung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8824BFC-B454-448B-B385-E39FEE4F1267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6EF254-DE64-4ED8-ACC3-8E6D2964D1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D6F9D0D-4BBF-4D5B-B860-0D5959743A1B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="71">
   <si>
     <t>3D-Druckteile</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>Kg/Stk.</t>
+  </si>
+  <si>
+    <t>Silentwind:</t>
+  </si>
+  <si>
+    <t>Gesamt:</t>
   </si>
 </sst>
 </file>
@@ -856,6 +862,102 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -865,23 +967,50 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -889,131 +1018,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1330,10 +1336,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F90BCB-C38A-4036-ADEE-3E3DA49246B1}">
-  <dimension ref="A1:AL31"/>
+  <dimension ref="A1:AO31"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="H1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1366,95 +1372,95 @@
     <col min="36" max="36" width="6.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="87" t="s">
+    <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="88"/>
-      <c r="C1" s="88"/>
-      <c r="D1" s="88"/>
-      <c r="E1" s="88"/>
-      <c r="F1" s="88"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="87" t="s">
+      <c r="B1" s="85"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="88"/>
-      <c r="J1" s="88"/>
-      <c r="K1" s="88"/>
-      <c r="L1" s="88"/>
-      <c r="M1" s="88"/>
-      <c r="N1" s="88"/>
-      <c r="O1" s="88"/>
-      <c r="P1" s="88"/>
-      <c r="Q1" s="88"/>
-      <c r="R1" s="88"/>
-      <c r="S1" s="89"/>
-      <c r="T1" s="87" t="s">
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+      <c r="M1" s="85"/>
+      <c r="N1" s="85"/>
+      <c r="O1" s="85"/>
+      <c r="P1" s="85"/>
+      <c r="Q1" s="85"/>
+      <c r="R1" s="85"/>
+      <c r="S1" s="86"/>
+      <c r="T1" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="88"/>
-      <c r="V1" s="88"/>
-      <c r="W1" s="88"/>
-      <c r="X1" s="88"/>
-      <c r="Y1" s="88"/>
-      <c r="Z1" s="89"/>
-      <c r="AA1" s="87" t="s">
+      <c r="U1" s="85"/>
+      <c r="V1" s="85"/>
+      <c r="W1" s="85"/>
+      <c r="X1" s="85"/>
+      <c r="Y1" s="85"/>
+      <c r="Z1" s="86"/>
+      <c r="AA1" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="88"/>
-      <c r="AC1" s="88"/>
-      <c r="AD1" s="88"/>
-      <c r="AE1" s="88"/>
-      <c r="AF1" s="88"/>
-      <c r="AG1" s="88"/>
-      <c r="AH1" s="88"/>
-      <c r="AI1" s="88"/>
-      <c r="AJ1" s="88"/>
-      <c r="AK1" s="88"/>
-      <c r="AL1" s="89"/>
-    </row>
-    <row r="2" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="90"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="90"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="91"/>
-      <c r="Q2" s="91"/>
-      <c r="R2" s="91"/>
-      <c r="S2" s="92"/>
-      <c r="T2" s="90"/>
-      <c r="U2" s="91"/>
-      <c r="V2" s="91"/>
-      <c r="W2" s="91"/>
-      <c r="X2" s="91"/>
-      <c r="Y2" s="91"/>
-      <c r="Z2" s="92"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="91"/>
-      <c r="AC2" s="91"/>
-      <c r="AD2" s="91"/>
-      <c r="AE2" s="91"/>
-      <c r="AF2" s="91"/>
-      <c r="AG2" s="91"/>
-      <c r="AH2" s="91"/>
-      <c r="AI2" s="91"/>
-      <c r="AJ2" s="91"/>
-      <c r="AK2" s="91"/>
-      <c r="AL2" s="92"/>
-    </row>
-    <row r="4" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AB1" s="85"/>
+      <c r="AC1" s="85"/>
+      <c r="AD1" s="85"/>
+      <c r="AE1" s="85"/>
+      <c r="AF1" s="85"/>
+      <c r="AG1" s="85"/>
+      <c r="AH1" s="85"/>
+      <c r="AI1" s="85"/>
+      <c r="AJ1" s="85"/>
+      <c r="AK1" s="85"/>
+      <c r="AL1" s="86"/>
+    </row>
+    <row r="2" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="87"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
+      <c r="R2" s="88"/>
+      <c r="S2" s="89"/>
+      <c r="T2" s="87"/>
+      <c r="U2" s="88"/>
+      <c r="V2" s="88"/>
+      <c r="W2" s="88"/>
+      <c r="X2" s="88"/>
+      <c r="Y2" s="88"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="87"/>
+      <c r="AB2" s="88"/>
+      <c r="AC2" s="88"/>
+      <c r="AD2" s="88"/>
+      <c r="AE2" s="88"/>
+      <c r="AF2" s="88"/>
+      <c r="AG2" s="88"/>
+      <c r="AH2" s="88"/>
+      <c r="AI2" s="88"/>
+      <c r="AJ2" s="88"/>
+      <c r="AK2" s="88"/>
+      <c r="AL2" s="89"/>
+    </row>
+    <row r="4" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
         <v>64</v>
       </c>
@@ -1468,7 +1474,7 @@
         <v>858</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7" t="s">
         <v>59</v>
       </c>
@@ -1476,18 +1482,18 @@
         <f>G14</f>
         <v>1927.1999999999998</v>
       </c>
-      <c r="H5" s="84" t="s">
+      <c r="H5" s="116" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="86"/>
+      <c r="I5" s="117"/>
+      <c r="J5" s="117"/>
+      <c r="K5" s="117"/>
+      <c r="L5" s="117"/>
+      <c r="M5" s="117"/>
+      <c r="N5" s="117"/>
+      <c r="O5" s="117"/>
+      <c r="P5" s="117"/>
+      <c r="Q5" s="118"/>
       <c r="R5" s="3" t="s">
         <v>50</v>
       </c>
@@ -1503,18 +1509,18 @@
         <f>Z14</f>
         <v>601.6</v>
       </c>
-      <c r="AA5" s="84" t="s">
+      <c r="AA5" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="AB5" s="85"/>
-      <c r="AC5" s="85"/>
-      <c r="AD5" s="85"/>
-      <c r="AE5" s="85"/>
-      <c r="AF5" s="85"/>
-      <c r="AG5" s="85"/>
-      <c r="AH5" s="85"/>
-      <c r="AI5" s="85"/>
-      <c r="AJ5" s="86"/>
+      <c r="AB5" s="117"/>
+      <c r="AC5" s="117"/>
+      <c r="AD5" s="117"/>
+      <c r="AE5" s="117"/>
+      <c r="AF5" s="117"/>
+      <c r="AG5" s="117"/>
+      <c r="AH5" s="117"/>
+      <c r="AI5" s="117"/>
+      <c r="AJ5" s="118"/>
       <c r="AK5" s="3" t="s">
         <v>50</v>
       </c>
@@ -1522,8 +1528,15 @@
         <f>AB9+AB9*AB10</f>
         <v>280.60000000000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:38" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AN5" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="AO5" s="8">
+        <f>1960*2</f>
+        <v>3920</v>
+      </c>
+    </row>
+    <row r="6" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="7" t="s">
         <v>60</v>
       </c>
@@ -1531,22 +1544,22 @@
         <f>G29</f>
         <v>3.024</v>
       </c>
-      <c r="H6" s="102" t="s">
+      <c r="H6" s="119" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="103"/>
-      <c r="J6" s="108" t="s">
+      <c r="I6" s="120"/>
+      <c r="J6" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="110"/>
-      <c r="N6" s="117" t="s">
+      <c r="K6" s="125"/>
+      <c r="L6" s="125"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="118"/>
-      <c r="P6" s="118"/>
-      <c r="Q6" s="119"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="112"/>
       <c r="R6" s="54"/>
       <c r="S6" s="4"/>
       <c r="U6" s="7" t="s">
@@ -1556,26 +1569,32 @@
         <f>Z21</f>
         <v>75.983999999999995</v>
       </c>
-      <c r="AA6" s="102" t="s">
+      <c r="AA6" s="119" t="s">
         <v>54</v>
       </c>
-      <c r="AB6" s="103"/>
-      <c r="AC6" s="108" t="s">
+      <c r="AB6" s="120"/>
+      <c r="AC6" s="93" t="s">
         <v>44</v>
       </c>
-      <c r="AD6" s="109"/>
-      <c r="AE6" s="109"/>
-      <c r="AF6" s="110"/>
-      <c r="AG6" s="117" t="s">
+      <c r="AD6" s="125"/>
+      <c r="AE6" s="125"/>
+      <c r="AF6" s="126"/>
+      <c r="AG6" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="AH6" s="118"/>
-      <c r="AI6" s="118"/>
-      <c r="AJ6" s="119"/>
+      <c r="AH6" s="111"/>
+      <c r="AI6" s="111"/>
+      <c r="AJ6" s="112"/>
       <c r="AK6" s="54"/>
       <c r="AL6" s="4"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN6" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO6" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
       <c r="B7" s="7" t="s">
         <v>21</v>
       </c>
@@ -1583,18 +1602,18 @@
         <f>S5</f>
         <v>124.2</v>
       </c>
-      <c r="H7" s="104"/>
-      <c r="I7" s="105"/>
-      <c r="J7" s="111"/>
-      <c r="K7" s="112"/>
-      <c r="L7" s="112"/>
-      <c r="M7" s="113"/>
-      <c r="N7" s="120">
+      <c r="H7" s="121"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="127"/>
+      <c r="K7" s="128"/>
+      <c r="L7" s="128"/>
+      <c r="M7" s="129"/>
+      <c r="N7" s="113">
         <v>2</v>
       </c>
-      <c r="O7" s="121"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="122"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="115"/>
       <c r="R7" s="4"/>
       <c r="U7" s="7" t="s">
         <v>21</v>
@@ -1603,22 +1622,29 @@
         <f>AL5+AL17</f>
         <v>1499.6</v>
       </c>
-      <c r="AA7" s="104"/>
-      <c r="AB7" s="105"/>
-      <c r="AC7" s="111"/>
-      <c r="AD7" s="112"/>
-      <c r="AE7" s="112"/>
-      <c r="AF7" s="113"/>
-      <c r="AG7" s="120">
+      <c r="AA7" s="121"/>
+      <c r="AB7" s="122"/>
+      <c r="AC7" s="127"/>
+      <c r="AD7" s="128"/>
+      <c r="AE7" s="128"/>
+      <c r="AF7" s="129"/>
+      <c r="AG7" s="113">
         <v>4</v>
       </c>
-      <c r="AH7" s="121"/>
-      <c r="AI7" s="121"/>
-      <c r="AJ7" s="122"/>
+      <c r="AH7" s="114"/>
+      <c r="AI7" s="114"/>
+      <c r="AJ7" s="115"/>
       <c r="AK7" s="4"/>
       <c r="AL7" s="4"/>
-    </row>
-    <row r="8" spans="1:38" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="AN7" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="AO7" s="8">
+        <f>AS22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="59" t="s">
         <v>61</v>
       </c>
@@ -1628,12 +1654,12 @@
       <c r="D8" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="106"/>
-      <c r="I8" s="107"/>
-      <c r="J8" s="114"/>
-      <c r="K8" s="115"/>
-      <c r="L8" s="115"/>
-      <c r="M8" s="116"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="130"/>
+      <c r="K8" s="131"/>
+      <c r="L8" s="131"/>
+      <c r="M8" s="132"/>
       <c r="N8" s="28"/>
       <c r="O8" s="30"/>
       <c r="P8" s="30"/>
@@ -1648,20 +1674,27 @@
       <c r="W8" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="AA8" s="106"/>
-      <c r="AB8" s="107"/>
-      <c r="AC8" s="114"/>
-      <c r="AD8" s="115"/>
-      <c r="AE8" s="115"/>
-      <c r="AF8" s="116"/>
+      <c r="AA8" s="123"/>
+      <c r="AB8" s="124"/>
+      <c r="AC8" s="130"/>
+      <c r="AD8" s="131"/>
+      <c r="AE8" s="131"/>
+      <c r="AF8" s="132"/>
       <c r="AG8" s="28"/>
       <c r="AH8" s="30"/>
       <c r="AI8" s="30"/>
       <c r="AJ8" s="29"/>
       <c r="AK8" s="14"/>
       <c r="AL8" s="4"/>
-    </row>
-    <row r="9" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="AO8" s="60">
+        <f>BE6+BE18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="66" t="s">
         <v>62</v>
       </c>
@@ -1676,12 +1709,12 @@
         <f>N7*N10+((J14*M14)+(J14*L14))*N7</f>
         <v>108</v>
       </c>
-      <c r="J9" s="108" t="s">
+      <c r="J9" s="93" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="123"/>
-      <c r="L9" s="123"/>
-      <c r="M9" s="124"/>
+      <c r="K9" s="94"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="95"/>
       <c r="N9" s="21" t="s">
         <v>32</v>
       </c>
@@ -1703,12 +1736,12 @@
         <f>AG7*AG10+((AC14*AF14)+(AC14*AE14))*AG7</f>
         <v>244</v>
       </c>
-      <c r="AC9" s="108" t="s">
+      <c r="AC9" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="AD9" s="123"/>
-      <c r="AE9" s="123"/>
-      <c r="AF9" s="124"/>
+      <c r="AD9" s="94"/>
+      <c r="AE9" s="94"/>
+      <c r="AF9" s="95"/>
       <c r="AG9" s="21" t="s">
         <v>32</v>
       </c>
@@ -1717,10 +1750,16 @@
       <c r="AJ9" s="23"/>
       <c r="AK9" s="17"/>
       <c r="AL9" s="4"/>
-    </row>
-    <row r="10" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="AN9" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO9" s="8">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="10" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="69" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="C10" s="12">
         <f>SUM(C4:C9)</f>
@@ -1732,10 +1771,10 @@
       <c r="I10" s="65">
         <v>0.15</v>
       </c>
-      <c r="J10" s="125"/>
-      <c r="K10" s="126"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="127"/>
+      <c r="J10" s="96"/>
+      <c r="K10" s="97"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="98"/>
       <c r="N10" s="27">
         <v>24</v>
       </c>
@@ -1744,7 +1783,7 @@
       <c r="Q10" s="26"/>
       <c r="R10" s="17"/>
       <c r="U10" s="68" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="V10" s="12">
         <f>SUM(V4:V9)</f>
@@ -1756,10 +1795,10 @@
       <c r="AB10" s="65">
         <v>0.15</v>
       </c>
-      <c r="AC10" s="125"/>
-      <c r="AD10" s="126"/>
-      <c r="AE10" s="126"/>
-      <c r="AF10" s="127"/>
+      <c r="AC10" s="96"/>
+      <c r="AD10" s="97"/>
+      <c r="AE10" s="97"/>
+      <c r="AF10" s="98"/>
       <c r="AG10" s="27">
         <v>36</v>
       </c>
@@ -1768,14 +1807,20 @@
       <c r="AJ10" s="26"/>
       <c r="AK10" s="17"/>
       <c r="AL10" s="4"/>
-    </row>
-    <row r="11" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="AN10" s="70" t="s">
+        <v>62</v>
+      </c>
+      <c r="AO10" s="60">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H11" s="28"/>
       <c r="I11" s="58"/>
-      <c r="J11" s="128"/>
-      <c r="K11" s="134"/>
-      <c r="L11" s="134"/>
-      <c r="M11" s="135"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="101"/>
       <c r="N11" s="28"/>
       <c r="O11" s="30"/>
       <c r="P11" s="30"/>
@@ -1784,84 +1829,91 @@
       <c r="T11" s="4"/>
       <c r="AA11" s="28"/>
       <c r="AB11" s="58"/>
-      <c r="AC11" s="128"/>
-      <c r="AD11" s="129"/>
-      <c r="AE11" s="129"/>
-      <c r="AF11" s="127"/>
+      <c r="AC11" s="99"/>
+      <c r="AD11" s="133"/>
+      <c r="AE11" s="133"/>
+      <c r="AF11" s="98"/>
       <c r="AG11" s="28"/>
       <c r="AH11" s="30"/>
       <c r="AI11" s="30"/>
       <c r="AJ11" s="29"/>
       <c r="AK11" s="4"/>
       <c r="AL11" s="4"/>
-    </row>
-    <row r="12" spans="1:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="130" t="s">
+      <c r="AN11" s="68" t="s">
+        <v>70</v>
+      </c>
+      <c r="AO11" s="12">
+        <f>SUM(AO5:AO10)</f>
+        <v>4460</v>
+      </c>
+    </row>
+    <row r="12" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H12" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="132" t="s">
+      <c r="I12" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="133" t="s">
+      <c r="J12" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="96" t="s">
+      <c r="K12" s="136" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="96"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="97" t="s">
+      <c r="L12" s="136"/>
+      <c r="M12" s="136"/>
+      <c r="N12" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="97"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="98" t="s">
+      <c r="O12" s="104"/>
+      <c r="P12" s="105"/>
+      <c r="Q12" s="106" t="s">
         <v>37</v>
       </c>
       <c r="R12" s="4"/>
       <c r="S12" s="4"/>
       <c r="T12" s="4"/>
-      <c r="AA12" s="130" t="s">
+      <c r="AA12" s="102" t="s">
         <v>33</v>
       </c>
-      <c r="AB12" s="132" t="s">
+      <c r="AB12" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="AC12" s="133" t="s">
+      <c r="AC12" s="109" t="s">
         <v>34</v>
       </c>
-      <c r="AD12" s="95" t="s">
+      <c r="AD12" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="AE12" s="96"/>
-      <c r="AF12" s="96"/>
-      <c r="AG12" s="97" t="s">
+      <c r="AE12" s="136"/>
+      <c r="AF12" s="136"/>
+      <c r="AG12" s="104" t="s">
         <v>36</v>
       </c>
-      <c r="AH12" s="97"/>
-      <c r="AI12" s="95"/>
-      <c r="AJ12" s="98" t="s">
+      <c r="AH12" s="104"/>
+      <c r="AI12" s="105"/>
+      <c r="AJ12" s="106" t="s">
         <v>37</v>
       </c>
       <c r="AK12" s="4"/>
       <c r="AL12" s="4"/>
     </row>
-    <row r="13" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="100" t="s">
+    <row r="13" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="101"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="136"/>
+      <c r="C13" s="91"/>
+      <c r="D13" s="91"/>
+      <c r="E13" s="92"/>
       <c r="F13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="16">
         <v>0.8</v>
       </c>
-      <c r="H13" s="131"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="133"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="108"/>
+      <c r="J13" s="109"/>
       <c r="K13" s="78"/>
       <c r="L13" s="31" t="s">
         <v>38</v>
@@ -1878,25 +1930,25 @@
       <c r="P13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="99"/>
+      <c r="Q13" s="107"/>
       <c r="R13" s="4"/>
       <c r="S13" s="4"/>
       <c r="T13" s="4"/>
-      <c r="U13" s="100" t="s">
+      <c r="U13" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="V13" s="101"/>
-      <c r="W13" s="101"/>
-      <c r="X13" s="136"/>
+      <c r="V13" s="91"/>
+      <c r="W13" s="91"/>
+      <c r="X13" s="92"/>
       <c r="Y13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z13" s="18">
         <v>0.8</v>
       </c>
-      <c r="AA13" s="131"/>
-      <c r="AB13" s="132"/>
-      <c r="AC13" s="133"/>
+      <c r="AA13" s="103"/>
+      <c r="AB13" s="108"/>
+      <c r="AC13" s="109"/>
       <c r="AD13" s="78"/>
       <c r="AE13" s="31" t="s">
         <v>38</v>
@@ -1913,11 +1965,11 @@
       <c r="AI13" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="AJ13" s="99"/>
+      <c r="AJ13" s="107"/>
       <c r="AK13" s="4"/>
       <c r="AL13" s="4"/>
     </row>
-    <row r="14" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="76" t="s">
         <v>1</v>
       </c>
@@ -2006,7 +2058,7 @@
       <c r="AK14" s="4"/>
       <c r="AL14" s="4"/>
     </row>
-    <row r="15" spans="1:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:41" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
       <c r="C15" s="1" t="s">
         <v>31</v>
@@ -2041,7 +2093,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>7</v>
       </c>
@@ -2099,18 +2151,18 @@
         <f>(Z13*W17)*V17</f>
         <v>300.8</v>
       </c>
-      <c r="AA17" s="100" t="s">
+      <c r="AA17" s="90" t="s">
         <v>55</v>
       </c>
-      <c r="AB17" s="101"/>
-      <c r="AC17" s="85"/>
-      <c r="AD17" s="85"/>
-      <c r="AE17" s="85"/>
-      <c r="AF17" s="85"/>
-      <c r="AG17" s="85"/>
-      <c r="AH17" s="85"/>
-      <c r="AI17" s="85"/>
-      <c r="AJ17" s="86"/>
+      <c r="AB17" s="91"/>
+      <c r="AC17" s="117"/>
+      <c r="AD17" s="117"/>
+      <c r="AE17" s="117"/>
+      <c r="AF17" s="117"/>
+      <c r="AG17" s="117"/>
+      <c r="AH17" s="117"/>
+      <c r="AI17" s="117"/>
+      <c r="AJ17" s="118"/>
       <c r="AK17" s="3" t="s">
         <v>50</v>
       </c>
@@ -2134,10 +2186,10 @@
         <v>622.40000000000009</v>
       </c>
       <c r="T18" s="4"/>
-      <c r="AA18" s="93" t="s">
+      <c r="AA18" s="134" t="s">
         <v>56</v>
       </c>
-      <c r="AB18" s="93"/>
+      <c r="AB18" s="134"/>
       <c r="AC18" s="33" t="s">
         <v>44</v>
       </c>
@@ -2167,8 +2219,8 @@
         <f>(G13*D19)*C19</f>
         <v>179.20000000000002</v>
       </c>
-      <c r="AA19" s="93"/>
-      <c r="AB19" s="93"/>
+      <c r="AA19" s="134"/>
+      <c r="AB19" s="134"/>
       <c r="AC19" s="43"/>
       <c r="AD19" s="62"/>
       <c r="AE19" s="62"/>
@@ -2196,20 +2248,20 @@
         <f>(G13*D20)*C20</f>
         <v>192</v>
       </c>
-      <c r="U20" s="84" t="s">
+      <c r="U20" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="V20" s="85"/>
-      <c r="W20" s="85"/>
-      <c r="X20" s="86"/>
+      <c r="V20" s="117"/>
+      <c r="W20" s="117"/>
+      <c r="X20" s="118"/>
       <c r="Y20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="Z20" s="18">
         <v>12</v>
       </c>
-      <c r="AA20" s="94"/>
-      <c r="AB20" s="93"/>
+      <c r="AA20" s="135"/>
+      <c r="AB20" s="134"/>
       <c r="AC20" s="45"/>
       <c r="AD20" s="46"/>
       <c r="AE20" s="46"/>
@@ -2393,11 +2445,11 @@
       <c r="AC24" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="AD24" s="96" t="s">
+      <c r="AD24" s="136" t="s">
         <v>35</v>
       </c>
-      <c r="AE24" s="96"/>
-      <c r="AF24" s="96"/>
+      <c r="AE24" s="136"/>
+      <c r="AF24" s="136"/>
       <c r="AG24" s="51" t="s">
         <v>36</v>
       </c>
@@ -2514,12 +2566,12 @@
       </c>
     </row>
     <row r="28" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="84" t="s">
+      <c r="B28" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="85"/>
-      <c r="D28" s="85"/>
-      <c r="E28" s="86"/>
+      <c r="C28" s="117"/>
+      <c r="D28" s="117"/>
+      <c r="E28" s="118"/>
       <c r="F28" s="2" t="s">
         <v>30</v>
       </c>
@@ -2590,25 +2642,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="J9:M11"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="H6:I8"/>
-    <mergeCell ref="J6:M8"/>
-    <mergeCell ref="AG7:AJ7"/>
-    <mergeCell ref="AC9:AF11"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="AC12:AC13"/>
     <mergeCell ref="U20:X20"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="T1:Z2"/>
@@ -2625,6 +2658,25 @@
     <mergeCell ref="AA6:AB8"/>
     <mergeCell ref="AC6:AF8"/>
     <mergeCell ref="AG6:AJ6"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="AC9:AF11"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="J9:M11"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="H6:I8"/>
+    <mergeCell ref="J6:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Endgültiges/Kostenrechnung.xlsx
+++ b/Endgültiges/Kostenrechnung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Maturaprojekt\Maturaprojekt\Endgültiges\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Diplo\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6EF254-DE64-4ED8-ACC3-8E6D2964D1C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4816100C-5DFC-4593-BBA1-6B20690BBF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D6F9D0D-4BBF-4D5B-B860-0D5959743A1B}"/>
   </bookViews>
@@ -669,32 +669,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -800,7 +797,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -810,29 +806,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -845,10 +839,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -862,6 +856,15 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -880,146 +883,134 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1339,7 +1330,7 @@
   <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="N22" sqref="N22"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1373,647 +1364,621 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="84" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
-      <c r="L1" s="85"/>
-      <c r="M1" s="85"/>
-      <c r="N1" s="85"/>
-      <c r="O1" s="85"/>
-      <c r="P1" s="85"/>
-      <c r="Q1" s="85"/>
-      <c r="R1" s="85"/>
-      <c r="S1" s="86"/>
-      <c r="T1" s="84" t="s">
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="85"/>
-      <c r="V1" s="85"/>
-      <c r="W1" s="85"/>
-      <c r="X1" s="85"/>
-      <c r="Y1" s="85"/>
-      <c r="Z1" s="86"/>
-      <c r="AA1" s="84" t="s">
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="85"/>
-      <c r="AC1" s="85"/>
-      <c r="AD1" s="85"/>
-      <c r="AE1" s="85"/>
-      <c r="AF1" s="85"/>
-      <c r="AG1" s="85"/>
-      <c r="AH1" s="85"/>
-      <c r="AI1" s="85"/>
-      <c r="AJ1" s="85"/>
-      <c r="AK1" s="85"/>
-      <c r="AL1" s="86"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="83"/>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="87"/>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="88"/>
-      <c r="M2" s="88"/>
-      <c r="N2" s="88"/>
-      <c r="O2" s="88"/>
-      <c r="P2" s="88"/>
-      <c r="Q2" s="88"/>
-      <c r="R2" s="88"/>
-      <c r="S2" s="89"/>
-      <c r="T2" s="87"/>
-      <c r="U2" s="88"/>
-      <c r="V2" s="88"/>
-      <c r="W2" s="88"/>
-      <c r="X2" s="88"/>
-      <c r="Y2" s="88"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="87"/>
-      <c r="AB2" s="88"/>
-      <c r="AC2" s="88"/>
-      <c r="AD2" s="88"/>
-      <c r="AE2" s="88"/>
-      <c r="AF2" s="88"/>
-      <c r="AG2" s="88"/>
-      <c r="AH2" s="88"/>
-      <c r="AI2" s="88"/>
-      <c r="AJ2" s="88"/>
-      <c r="AK2" s="88"/>
-      <c r="AL2" s="89"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="86"/>
     </row>
     <row r="4" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>858</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="U4" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="V4" s="8">
+      <c r="V4" s="6">
         <v>858</v>
       </c>
     </row>
     <row r="5" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <f>G14</f>
         <v>1927.1999999999998</v>
       </c>
-      <c r="H5" s="116" t="s">
+      <c r="H5" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="117"/>
-      <c r="J5" s="117"/>
-      <c r="K5" s="117"/>
-      <c r="L5" s="117"/>
-      <c r="M5" s="117"/>
-      <c r="N5" s="117"/>
-      <c r="O5" s="117"/>
-      <c r="P5" s="117"/>
-      <c r="Q5" s="118"/>
-      <c r="R5" s="3" t="s">
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
+      <c r="R5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S5" s="15">
+      <c r="S5" s="12">
         <f>I9+I9*I10</f>
         <v>124.2</v>
       </c>
-      <c r="T5" s="17"/>
-      <c r="U5" s="7" t="s">
+      <c r="T5" s="14"/>
+      <c r="U5" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="V5" s="8">
+      <c r="V5" s="6">
         <f>Z14</f>
         <v>601.6</v>
       </c>
-      <c r="AA5" s="116" t="s">
+      <c r="AA5" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="AB5" s="117"/>
-      <c r="AC5" s="117"/>
-      <c r="AD5" s="117"/>
-      <c r="AE5" s="117"/>
-      <c r="AF5" s="117"/>
-      <c r="AG5" s="117"/>
-      <c r="AH5" s="117"/>
-      <c r="AI5" s="117"/>
-      <c r="AJ5" s="118"/>
-      <c r="AK5" s="3" t="s">
+      <c r="AB5" s="79"/>
+      <c r="AC5" s="79"/>
+      <c r="AD5" s="79"/>
+      <c r="AE5" s="79"/>
+      <c r="AF5" s="79"/>
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="79"/>
+      <c r="AI5" s="79"/>
+      <c r="AJ5" s="80"/>
+      <c r="AK5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AL5" s="15">
+      <c r="AL5" s="12">
         <f>AB9+AB9*AB10</f>
         <v>280.60000000000002</v>
       </c>
-      <c r="AN5" s="7" t="s">
+      <c r="AN5" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AO5" s="8">
+      <c r="AO5" s="6">
         <f>1960*2</f>
         <v>3920</v>
       </c>
     </row>
     <row r="6" spans="1:41" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <f>G29</f>
         <v>3.024</v>
       </c>
-      <c r="H6" s="119" t="s">
+      <c r="H6" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="120"/>
-      <c r="J6" s="93" t="s">
+      <c r="I6" s="97"/>
+      <c r="J6" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="125"/>
-      <c r="L6" s="125"/>
-      <c r="M6" s="126"/>
-      <c r="N6" s="110" t="s">
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
+      <c r="M6" s="104"/>
+      <c r="N6" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="111"/>
-      <c r="P6" s="111"/>
-      <c r="Q6" s="112"/>
-      <c r="R6" s="54"/>
-      <c r="S6" s="4"/>
-      <c r="U6" s="7" t="s">
+      <c r="O6" s="112"/>
+      <c r="P6" s="112"/>
+      <c r="Q6" s="113"/>
+      <c r="U6" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="V6" s="8">
+      <c r="V6" s="6">
         <f>Z21</f>
         <v>75.983999999999995</v>
       </c>
-      <c r="AA6" s="119" t="s">
+      <c r="AA6" s="96" t="s">
         <v>54</v>
       </c>
-      <c r="AB6" s="120"/>
-      <c r="AC6" s="93" t="s">
+      <c r="AB6" s="97"/>
+      <c r="AC6" s="102" t="s">
         <v>44</v>
       </c>
-      <c r="AD6" s="125"/>
-      <c r="AE6" s="125"/>
-      <c r="AF6" s="126"/>
-      <c r="AG6" s="110" t="s">
+      <c r="AD6" s="103"/>
+      <c r="AE6" s="103"/>
+      <c r="AF6" s="104"/>
+      <c r="AG6" s="111" t="s">
         <v>48</v>
       </c>
-      <c r="AH6" s="111"/>
-      <c r="AI6" s="111"/>
-      <c r="AJ6" s="112"/>
-      <c r="AK6" s="54"/>
-      <c r="AL6" s="4"/>
-      <c r="AN6" s="7" t="s">
+      <c r="AH6" s="112"/>
+      <c r="AI6" s="112"/>
+      <c r="AJ6" s="113"/>
+      <c r="AN6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="AO6" s="8">
+      <c r="AO6" s="6">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <f>S5</f>
         <v>124.2</v>
       </c>
-      <c r="H7" s="121"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="127"/>
-      <c r="K7" s="128"/>
-      <c r="L7" s="128"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="113">
+      <c r="H7" s="98"/>
+      <c r="I7" s="99"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="114">
         <v>2</v>
       </c>
-      <c r="O7" s="114"/>
-      <c r="P7" s="114"/>
-      <c r="Q7" s="115"/>
-      <c r="R7" s="4"/>
-      <c r="U7" s="7" t="s">
+      <c r="O7" s="115"/>
+      <c r="P7" s="115"/>
+      <c r="Q7" s="116"/>
+      <c r="U7" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="V7" s="60">
+      <c r="V7" s="56">
         <f>AL5+AL17</f>
         <v>1499.6</v>
       </c>
-      <c r="AA7" s="121"/>
-      <c r="AB7" s="122"/>
-      <c r="AC7" s="127"/>
-      <c r="AD7" s="128"/>
-      <c r="AE7" s="128"/>
-      <c r="AF7" s="129"/>
-      <c r="AG7" s="113">
+      <c r="AA7" s="98"/>
+      <c r="AB7" s="99"/>
+      <c r="AC7" s="105"/>
+      <c r="AD7" s="106"/>
+      <c r="AE7" s="106"/>
+      <c r="AF7" s="107"/>
+      <c r="AG7" s="114">
         <v>4</v>
       </c>
-      <c r="AH7" s="114"/>
-      <c r="AI7" s="114"/>
-      <c r="AJ7" s="115"/>
-      <c r="AK7" s="4"/>
-      <c r="AL7" s="4"/>
-      <c r="AN7" s="7" t="s">
+      <c r="AH7" s="115"/>
+      <c r="AI7" s="115"/>
+      <c r="AJ7" s="116"/>
+      <c r="AN7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="AO7" s="8">
+      <c r="AO7" s="6">
         <f>AS22</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:41" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="60">
+      <c r="C8" s="56">
         <v>100</v>
       </c>
-      <c r="D8" s="71" t="s">
+      <c r="D8" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="123"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="130"/>
-      <c r="K8" s="131"/>
-      <c r="L8" s="131"/>
-      <c r="M8" s="132"/>
-      <c r="N8" s="28"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="14"/>
-      <c r="U8" s="7" t="s">
+      <c r="H8" s="100"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="26"/>
+      <c r="R8" s="11"/>
+      <c r="U8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="V8" s="8">
+      <c r="V8" s="6">
         <v>100</v>
       </c>
-      <c r="W8" s="71" t="s">
+      <c r="W8" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="AA8" s="123"/>
-      <c r="AB8" s="124"/>
-      <c r="AC8" s="130"/>
-      <c r="AD8" s="131"/>
-      <c r="AE8" s="131"/>
-      <c r="AF8" s="132"/>
-      <c r="AG8" s="28"/>
-      <c r="AH8" s="30"/>
-      <c r="AI8" s="30"/>
-      <c r="AJ8" s="29"/>
-      <c r="AK8" s="14"/>
-      <c r="AL8" s="4"/>
-      <c r="AN8" s="7" t="s">
+      <c r="AA8" s="100"/>
+      <c r="AB8" s="101"/>
+      <c r="AC8" s="108"/>
+      <c r="AD8" s="109"/>
+      <c r="AE8" s="109"/>
+      <c r="AF8" s="110"/>
+      <c r="AG8" s="25"/>
+      <c r="AH8" s="27"/>
+      <c r="AI8" s="27"/>
+      <c r="AJ8" s="26"/>
+      <c r="AK8" s="11"/>
+      <c r="AN8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="AO8" s="60">
+      <c r="AO8" s="56">
         <f>BE6+BE18</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="56">
         <v>300</v>
       </c>
-      <c r="D9" s="71" t="s">
+      <c r="D9" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="H9" s="21"/>
-      <c r="I9" s="22">
+      <c r="H9" s="18"/>
+      <c r="I9" s="19">
         <f>N7*N10+((J14*M14)+(J14*L14))*N7</f>
         <v>108</v>
       </c>
-      <c r="J9" s="93" t="s">
+      <c r="J9" s="102" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="95"/>
-      <c r="N9" s="21" t="s">
+      <c r="K9" s="117"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="24"/>
-      <c r="P9" s="24"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="17"/>
-      <c r="U9" s="70" t="s">
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="20"/>
+      <c r="R9" s="14"/>
+      <c r="U9" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="V9" s="60">
+      <c r="V9" s="56">
         <v>250</v>
       </c>
-      <c r="W9" s="71" t="s">
+      <c r="W9" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="AA9" s="21"/>
-      <c r="AB9" s="22">
+      <c r="AA9" s="18"/>
+      <c r="AB9" s="19">
         <f>AG7*AG10+((AC14*AF14)+(AC14*AE14))*AG7</f>
         <v>244</v>
       </c>
-      <c r="AC9" s="93" t="s">
+      <c r="AC9" s="102" t="s">
         <v>53</v>
       </c>
-      <c r="AD9" s="94"/>
-      <c r="AE9" s="94"/>
-      <c r="AF9" s="95"/>
-      <c r="AG9" s="21" t="s">
+      <c r="AD9" s="117"/>
+      <c r="AE9" s="117"/>
+      <c r="AF9" s="118"/>
+      <c r="AG9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="AH9" s="24"/>
-      <c r="AI9" s="24"/>
-      <c r="AJ9" s="23"/>
-      <c r="AK9" s="17"/>
-      <c r="AL9" s="4"/>
-      <c r="AN9" s="7" t="s">
+      <c r="AH9" s="21"/>
+      <c r="AI9" s="21"/>
+      <c r="AJ9" s="20"/>
+      <c r="AK9" s="14"/>
+      <c r="AN9" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AO9" s="8">
+      <c r="AO9" s="6">
         <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="69" t="s">
+      <c r="B10" s="63" t="s">
         <v>70</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <f>SUM(C4:C9)</f>
         <v>3312.4239999999995</v>
       </c>
-      <c r="H10" s="25" t="s">
+      <c r="H10" s="22" t="s">
         <v>49</v>
       </c>
-      <c r="I10" s="65">
+      <c r="I10" s="61">
         <v>0.15</v>
       </c>
-      <c r="J10" s="96"/>
-      <c r="K10" s="97"/>
-      <c r="L10" s="97"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="27">
+      <c r="J10" s="119"/>
+      <c r="K10" s="120"/>
+      <c r="L10" s="120"/>
+      <c r="M10" s="121"/>
+      <c r="N10" s="24">
         <v>24</v>
       </c>
-      <c r="O10" s="61"/>
-      <c r="P10" s="61"/>
-      <c r="Q10" s="26"/>
-      <c r="R10" s="17"/>
-      <c r="U10" s="68" t="s">
+      <c r="O10" s="57"/>
+      <c r="P10" s="57"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="14"/>
+      <c r="U10" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="V10" s="12">
+      <c r="V10" s="9">
         <f>SUM(V4:V9)</f>
         <v>3385.1839999999997</v>
       </c>
-      <c r="AA10" s="25" t="s">
+      <c r="AA10" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AB10" s="65">
+      <c r="AB10" s="61">
         <v>0.15</v>
       </c>
-      <c r="AC10" s="96"/>
-      <c r="AD10" s="97"/>
-      <c r="AE10" s="97"/>
-      <c r="AF10" s="98"/>
-      <c r="AG10" s="27">
+      <c r="AC10" s="119"/>
+      <c r="AD10" s="120"/>
+      <c r="AE10" s="120"/>
+      <c r="AF10" s="121"/>
+      <c r="AG10" s="24">
         <v>36</v>
       </c>
-      <c r="AH10" s="61"/>
-      <c r="AI10" s="61"/>
-      <c r="AJ10" s="26"/>
-      <c r="AK10" s="17"/>
-      <c r="AL10" s="4"/>
-      <c r="AN10" s="70" t="s">
+      <c r="AH10" s="57"/>
+      <c r="AI10" s="57"/>
+      <c r="AJ10" s="23"/>
+      <c r="AK10" s="14"/>
+      <c r="AN10" s="64" t="s">
         <v>62</v>
       </c>
-      <c r="AO10" s="60">
+      <c r="AO10" s="56">
         <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H11" s="28"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="100"/>
-      <c r="L11" s="100"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="28"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="4"/>
-      <c r="T11" s="4"/>
-      <c r="AA11" s="28"/>
-      <c r="AB11" s="58"/>
-      <c r="AC11" s="99"/>
-      <c r="AD11" s="133"/>
-      <c r="AE11" s="133"/>
-      <c r="AF11" s="98"/>
-      <c r="AG11" s="28"/>
-      <c r="AH11" s="30"/>
-      <c r="AI11" s="30"/>
-      <c r="AJ11" s="29"/>
-      <c r="AK11" s="4"/>
-      <c r="AL11" s="4"/>
-      <c r="AN11" s="68" t="s">
+      <c r="H11" s="25"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="128"/>
+      <c r="L11" s="128"/>
+      <c r="M11" s="129"/>
+      <c r="N11" s="25"/>
+      <c r="O11" s="27"/>
+      <c r="P11" s="27"/>
+      <c r="Q11" s="26"/>
+      <c r="AA11" s="25"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="122"/>
+      <c r="AD11" s="120"/>
+      <c r="AE11" s="120"/>
+      <c r="AF11" s="121"/>
+      <c r="AG11" s="25"/>
+      <c r="AH11" s="27"/>
+      <c r="AI11" s="27"/>
+      <c r="AJ11" s="26"/>
+      <c r="AN11" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="AO11" s="12">
+      <c r="AO11" s="9">
         <f>SUM(AO5:AO10)</f>
         <v>4460</v>
       </c>
     </row>
     <row r="12" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="102" t="s">
+      <c r="H12" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="108" t="s">
+      <c r="I12" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="109" t="s">
+      <c r="J12" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="136" t="s">
+      <c r="K12" s="90" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="136"/>
-      <c r="M12" s="136"/>
-      <c r="N12" s="104" t="s">
+      <c r="L12" s="90"/>
+      <c r="M12" s="90"/>
+      <c r="N12" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="104"/>
-      <c r="P12" s="105"/>
-      <c r="Q12" s="106" t="s">
+      <c r="O12" s="91"/>
+      <c r="P12" s="89"/>
+      <c r="Q12" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="AA12" s="102" t="s">
+      <c r="AA12" s="123" t="s">
         <v>33</v>
       </c>
-      <c r="AB12" s="108" t="s">
+      <c r="AB12" s="125" t="s">
         <v>51</v>
       </c>
-      <c r="AC12" s="109" t="s">
+      <c r="AC12" s="126" t="s">
         <v>34</v>
       </c>
-      <c r="AD12" s="105" t="s">
+      <c r="AD12" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="AE12" s="136"/>
-      <c r="AF12" s="136"/>
-      <c r="AG12" s="104" t="s">
+      <c r="AE12" s="90"/>
+      <c r="AF12" s="90"/>
+      <c r="AG12" s="91" t="s">
         <v>36</v>
       </c>
-      <c r="AH12" s="104"/>
-      <c r="AI12" s="105"/>
-      <c r="AJ12" s="106" t="s">
+      <c r="AH12" s="91"/>
+      <c r="AI12" s="89"/>
+      <c r="AJ12" s="92" t="s">
         <v>37</v>
       </c>
-      <c r="AK12" s="4"/>
-      <c r="AL12" s="4"/>
     </row>
     <row r="13" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="90" t="s">
+      <c r="B13" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="91"/>
-      <c r="D13" s="91"/>
-      <c r="E13" s="92"/>
+      <c r="C13" s="95"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="127"/>
       <c r="F13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="13">
         <v>0.8</v>
       </c>
-      <c r="H13" s="103"/>
-      <c r="I13" s="108"/>
-      <c r="J13" s="109"/>
-      <c r="K13" s="78"/>
-      <c r="L13" s="31" t="s">
+      <c r="H13" s="124"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="126"/>
+      <c r="K13" s="72"/>
+      <c r="L13" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="M13" s="79" t="s">
+      <c r="M13" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="N13" s="31" t="s">
+      <c r="N13" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="O13" s="31" t="s">
+      <c r="O13" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="P13" s="31" t="s">
+      <c r="P13" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="107"/>
-      <c r="R13" s="4"/>
-      <c r="S13" s="4"/>
-      <c r="T13" s="4"/>
-      <c r="U13" s="90" t="s">
+      <c r="Q13" s="93"/>
+      <c r="U13" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="V13" s="91"/>
-      <c r="W13" s="91"/>
-      <c r="X13" s="92"/>
+      <c r="V13" s="95"/>
+      <c r="W13" s="95"/>
+      <c r="X13" s="127"/>
       <c r="Y13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="Z13" s="18">
+      <c r="Z13" s="15">
         <v>0.8</v>
       </c>
-      <c r="AA13" s="103"/>
-      <c r="AB13" s="108"/>
-      <c r="AC13" s="109"/>
-      <c r="AD13" s="78"/>
-      <c r="AE13" s="31" t="s">
+      <c r="AA13" s="124"/>
+      <c r="AB13" s="125"/>
+      <c r="AC13" s="126"/>
+      <c r="AD13" s="72"/>
+      <c r="AE13" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="AF13" s="79" t="s">
+      <c r="AF13" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="AG13" s="31" t="s">
+      <c r="AG13" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AH13" s="31" t="s">
+      <c r="AH13" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="AI13" s="31" t="s">
+      <c r="AI13" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="AJ13" s="107"/>
-      <c r="AK13" s="4"/>
-      <c r="AL13" s="4"/>
+      <c r="AJ13" s="93"/>
     </row>
     <row r="14" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="76" t="s">
+      <c r="C14" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="76" t="s">
+      <c r="D14" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="76" t="s">
+      <c r="E14" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="59">
         <f>SUM(E16:E25)</f>
         <v>1927.1999999999998</v>
       </c>
-      <c r="H14" s="7">
+      <c r="H14" s="5">
         <v>1</v>
       </c>
-      <c r="I14" s="7" t="s">
+      <c r="I14" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="J14" s="8">
+      <c r="J14" s="6">
         <v>50</v>
       </c>
-      <c r="K14" s="83"/>
-      <c r="L14" s="7">
+      <c r="K14" s="77"/>
+      <c r="L14" s="5">
         <v>0.2</v>
       </c>
-      <c r="M14" s="75">
+      <c r="M14" s="69">
         <v>0.4</v>
       </c>
-      <c r="N14" s="7"/>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7">
+      <c r="N14" s="5"/>
+      <c r="O14" s="5"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5">
         <v>1</v>
       </c>
-      <c r="R14" s="4"/>
-      <c r="S14" s="4"/>
-      <c r="T14" s="17"/>
+      <c r="T14" s="14"/>
       <c r="U14" s="2" t="s">
         <v>1</v>
       </c>
@@ -2026,40 +1991,38 @@
       <c r="X14" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Y14" s="3" t="s">
+      <c r="Y14" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z14" s="12">
+      <c r="Z14" s="9">
         <f>SUM(X16:X17)</f>
         <v>601.6</v>
       </c>
-      <c r="AA14" s="7">
+      <c r="AA14" s="5">
         <v>1</v>
       </c>
-      <c r="AB14" s="68" t="s">
+      <c r="AB14" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="AC14" s="8">
+      <c r="AC14" s="6">
         <v>50</v>
       </c>
-      <c r="AD14" s="82"/>
-      <c r="AE14" s="7">
+      <c r="AD14" s="76"/>
+      <c r="AE14" s="5">
         <v>0.2</v>
       </c>
-      <c r="AF14" s="75">
+      <c r="AF14" s="69">
         <v>0.3</v>
       </c>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="7">
+      <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
+      <c r="AI14" s="5"/>
+      <c r="AJ14" s="5">
         <v>1</v>
       </c>
-      <c r="AK14" s="4"/>
-      <c r="AL14" s="4"/>
     </row>
     <row r="15" spans="1:41" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="5"/>
+      <c r="B15" s="3"/>
       <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
@@ -2069,20 +2032,9 @@
       <c r="E15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="54"/>
-      <c r="Q15" s="54"/>
-      <c r="R15" s="54"/>
-      <c r="S15" s="67"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="5"/>
+      <c r="S15" s="14"/>
+      <c r="T15" s="14"/>
+      <c r="U15" s="3"/>
       <c r="V15" s="1" t="s">
         <v>31</v>
       </c>
@@ -2094,196 +2046,187 @@
       </c>
     </row>
     <row r="16" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="7">
         <v>1</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D16" s="7">
         <v>168</v>
       </c>
-      <c r="E16" s="11">
+      <c r="E16" s="8">
         <f>(G13*D16)*C16</f>
         <v>134.4</v>
       </c>
-      <c r="F16" s="9"/>
-      <c r="T16" s="4"/>
-      <c r="U16" s="10" t="s">
+      <c r="U16" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="V16" s="10">
+      <c r="V16" s="7">
         <v>2</v>
       </c>
-      <c r="W16" s="10">
+      <c r="W16" s="7">
         <v>188</v>
       </c>
-      <c r="X16" s="11">
+      <c r="X16" s="8">
         <f>(Z13*W16)*V16</f>
         <v>300.8</v>
       </c>
     </row>
     <row r="17" spans="2:38" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="7" t="s">
+      <c r="B17" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="5">
         <v>2</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="5">
         <v>58</v>
       </c>
-      <c r="E17" s="11">
+      <c r="E17" s="8">
         <f>(G13*D17)*C17</f>
         <v>92.800000000000011</v>
       </c>
-      <c r="T17" s="4"/>
-      <c r="U17" s="7" t="s">
+      <c r="U17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="V17" s="7">
+      <c r="V17" s="5">
         <v>2</v>
       </c>
-      <c r="W17" s="7">
+      <c r="W17" s="5">
         <v>188</v>
       </c>
-      <c r="X17" s="8">
+      <c r="X17" s="6">
         <f>(Z13*W17)*V17</f>
         <v>300.8</v>
       </c>
-      <c r="AA17" s="90" t="s">
+      <c r="AA17" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="AB17" s="91"/>
-      <c r="AC17" s="117"/>
-      <c r="AD17" s="117"/>
-      <c r="AE17" s="117"/>
-      <c r="AF17" s="117"/>
-      <c r="AG17" s="117"/>
-      <c r="AH17" s="117"/>
-      <c r="AI17" s="117"/>
-      <c r="AJ17" s="118"/>
-      <c r="AK17" s="3" t="s">
+      <c r="AB17" s="95"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="79"/>
+      <c r="AH17" s="79"/>
+      <c r="AI17" s="79"/>
+      <c r="AJ17" s="80"/>
+      <c r="AK17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AL17" s="15">
+      <c r="AL17" s="12">
         <f>AB21+AB21*AB22</f>
         <v>1219</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
+      <c r="B18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="7">
+      <c r="C18" s="5">
         <v>2</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="5">
         <v>389</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="8">
         <f>(G13*D18)*C18</f>
         <v>622.40000000000009</v>
       </c>
-      <c r="T18" s="4"/>
-      <c r="AA18" s="134" t="s">
+      <c r="AA18" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="AB18" s="134"/>
-      <c r="AC18" s="33" t="s">
+      <c r="AB18" s="87"/>
+      <c r="AC18" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="AD18" s="41"/>
-      <c r="AE18" s="41"/>
-      <c r="AF18" s="42"/>
-      <c r="AG18" s="55" t="s">
+      <c r="AD18" s="38"/>
+      <c r="AE18" s="38"/>
+      <c r="AF18" s="39"/>
+      <c r="AG18" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="AH18" s="56"/>
-      <c r="AI18" s="56"/>
-      <c r="AJ18" s="57"/>
-      <c r="AK18" s="54"/>
-      <c r="AL18" s="4"/>
+      <c r="AH18" s="52"/>
+      <c r="AI18" s="52"/>
+      <c r="AJ18" s="53"/>
     </row>
     <row r="19" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="7">
+      <c r="C19" s="5">
         <v>2</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="5">
         <v>112</v>
       </c>
-      <c r="E19" s="11">
+      <c r="E19" s="8">
         <f>(G13*D19)*C19</f>
         <v>179.20000000000002</v>
       </c>
-      <c r="AA19" s="134"/>
-      <c r="AB19" s="134"/>
-      <c r="AC19" s="43"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="62"/>
-      <c r="AF19" s="44"/>
-      <c r="AG19" s="37">
+      <c r="AA19" s="87"/>
+      <c r="AB19" s="87"/>
+      <c r="AC19" s="40"/>
+      <c r="AD19" s="58"/>
+      <c r="AE19" s="58"/>
+      <c r="AF19" s="41"/>
+      <c r="AG19" s="34">
         <v>4</v>
       </c>
-      <c r="AH19" s="64"/>
-      <c r="AI19" s="64"/>
-      <c r="AJ19" s="38"/>
-      <c r="AK19" s="4"/>
-      <c r="AL19" s="4"/>
+      <c r="AH19" s="60"/>
+      <c r="AI19" s="60"/>
+      <c r="AJ19" s="35"/>
     </row>
     <row r="20" spans="2:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="7" t="s">
+      <c r="B20" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="7">
+      <c r="C20" s="5">
         <v>1</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="5">
         <v>240</v>
       </c>
-      <c r="E20" s="11">
+      <c r="E20" s="8">
         <f>(G13*D20)*C20</f>
         <v>192</v>
       </c>
-      <c r="U20" s="116" t="s">
+      <c r="U20" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="V20" s="117"/>
-      <c r="W20" s="117"/>
-      <c r="X20" s="118"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="80"/>
       <c r="Y20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="Z20" s="18">
+      <c r="Z20" s="15">
         <v>12</v>
       </c>
-      <c r="AA20" s="135"/>
-      <c r="AB20" s="134"/>
-      <c r="AC20" s="45"/>
-      <c r="AD20" s="46"/>
-      <c r="AE20" s="46"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="28"/>
-      <c r="AH20" s="30"/>
-      <c r="AI20" s="30"/>
-      <c r="AJ20" s="29"/>
-      <c r="AK20" s="14"/>
-      <c r="AL20" s="4"/>
+      <c r="AA20" s="88"/>
+      <c r="AB20" s="87"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="43"/>
+      <c r="AE20" s="43"/>
+      <c r="AF20" s="44"/>
+      <c r="AG20" s="25"/>
+      <c r="AH20" s="27"/>
+      <c r="AI20" s="27"/>
+      <c r="AJ20" s="26"/>
+      <c r="AK20" s="11"/>
     </row>
     <row r="21" spans="2:38" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="7" t="s">
+      <c r="B21" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C21" s="5">
         <v>2</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="5">
         <v>61</v>
       </c>
-      <c r="E21" s="11">
+      <c r="E21" s="8">
         <f>(G13*D21)*C21</f>
         <v>97.600000000000009</v>
       </c>
@@ -2299,322 +2242,312 @@
       <c r="X21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="Y21" s="3" t="s">
+      <c r="Y21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Z21" s="12">
+      <c r="Z21" s="9">
         <f>SUM(X23:X28)</f>
         <v>75.983999999999995</v>
       </c>
-      <c r="AA21" s="21"/>
-      <c r="AB21" s="22">
+      <c r="AA21" s="18"/>
+      <c r="AB21" s="19">
         <f>AG19*AG22+((AC26*AF26)+(AC26*AE26))*AG19</f>
         <v>1060</v>
       </c>
-      <c r="AC21" s="33" t="s">
+      <c r="AC21" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="32"/>
-      <c r="AG21" s="21" t="s">
+      <c r="AD21" s="31"/>
+      <c r="AE21" s="31"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="AH21" s="24"/>
-      <c r="AI21" s="24"/>
-      <c r="AJ21" s="23"/>
-      <c r="AK21" s="17"/>
-      <c r="AL21" s="4"/>
+      <c r="AH21" s="21"/>
+      <c r="AI21" s="21"/>
+      <c r="AJ21" s="20"/>
+      <c r="AK21" s="14"/>
     </row>
     <row r="22" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B22" s="7" t="s">
+      <c r="B22" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="7">
+      <c r="C22" s="5">
         <v>2</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="5">
         <v>71</v>
       </c>
-      <c r="E22" s="11">
+      <c r="E22" s="8">
         <f>(G13*D22)*C22</f>
         <v>113.60000000000001</v>
       </c>
-      <c r="U22" s="6"/>
-      <c r="V22" s="13" t="s">
+      <c r="U22" s="4"/>
+      <c r="V22" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="W22" s="13" t="s">
+      <c r="W22" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="X22" s="13" t="s">
+      <c r="X22" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="AA22" s="25" t="s">
+      <c r="AA22" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="AB22" s="65">
+      <c r="AB22" s="61">
         <v>0.15</v>
       </c>
-      <c r="AC22" s="35"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="39"/>
-      <c r="AF22" s="36"/>
-      <c r="AG22" s="27">
+      <c r="AC22" s="32"/>
+      <c r="AD22" s="36"/>
+      <c r="AE22" s="36"/>
+      <c r="AF22" s="33"/>
+      <c r="AG22" s="24">
         <v>240</v>
       </c>
-      <c r="AH22" s="61"/>
-      <c r="AI22" s="61"/>
-      <c r="AJ22" s="26"/>
-      <c r="AK22" s="17"/>
-      <c r="AL22" s="4"/>
+      <c r="AH22" s="57"/>
+      <c r="AI22" s="57"/>
+      <c r="AJ22" s="23"/>
+      <c r="AK22" s="14"/>
     </row>
     <row r="23" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
+      <c r="B23" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C23" s="5">
         <v>4</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="5">
         <v>93</v>
       </c>
-      <c r="E23" s="11">
+      <c r="E23" s="8">
         <f>(G13*D23)*C23</f>
         <v>297.60000000000002</v>
       </c>
-      <c r="U23" s="7" t="s">
+      <c r="U23" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="V23" s="7">
+      <c r="V23" s="5">
         <v>2</v>
       </c>
-      <c r="W23" s="7">
+      <c r="W23" s="5">
         <v>0.32</v>
       </c>
-      <c r="X23" s="8">
+      <c r="X23" s="6">
         <f>(Z20*W23)*V23</f>
         <v>7.68</v>
       </c>
-      <c r="AA23" s="28"/>
-      <c r="AB23" s="58"/>
-      <c r="AC23" s="19"/>
-      <c r="AD23" s="40"/>
-      <c r="AE23" s="40"/>
-      <c r="AF23" s="20"/>
-      <c r="AG23" s="28"/>
-      <c r="AH23" s="30"/>
-      <c r="AI23" s="30"/>
-      <c r="AJ23" s="29"/>
-      <c r="AK23" s="4"/>
-      <c r="AL23" s="4"/>
+      <c r="AA23" s="25"/>
+      <c r="AB23" s="54"/>
+      <c r="AC23" s="16"/>
+      <c r="AD23" s="37"/>
+      <c r="AE23" s="37"/>
+      <c r="AF23" s="17"/>
+      <c r="AG23" s="25"/>
+      <c r="AH23" s="27"/>
+      <c r="AI23" s="27"/>
+      <c r="AJ23" s="26"/>
     </row>
     <row r="24" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
+      <c r="B24" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="7">
+      <c r="C24" s="5">
         <v>1</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="5">
         <v>146</v>
       </c>
-      <c r="E24" s="11">
+      <c r="E24" s="8">
         <f>(G13*D24)*C24</f>
         <v>116.80000000000001</v>
       </c>
-      <c r="U24" s="7" t="s">
+      <c r="U24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="V24" s="7">
+      <c r="V24" s="5">
         <v>2</v>
       </c>
-      <c r="W24" s="7">
+      <c r="W24" s="5">
         <v>0.34699999999999998</v>
       </c>
-      <c r="X24" s="8">
+      <c r="X24" s="6">
         <f>(Z20*W24)*V24</f>
         <v>8.3279999999999994</v>
       </c>
-      <c r="AA24" s="72" t="s">
+      <c r="AA24" s="66" t="s">
         <v>33</v>
       </c>
-      <c r="AB24" s="73" t="s">
+      <c r="AB24" s="67" t="s">
         <v>51</v>
       </c>
-      <c r="AC24" s="49" t="s">
+      <c r="AC24" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AD24" s="136" t="s">
+      <c r="AD24" s="90" t="s">
         <v>35</v>
       </c>
-      <c r="AE24" s="136"/>
-      <c r="AF24" s="136"/>
-      <c r="AG24" s="51" t="s">
+      <c r="AE24" s="90"/>
+      <c r="AF24" s="90"/>
+      <c r="AG24" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="AH24" s="50"/>
-      <c r="AI24" s="52"/>
-      <c r="AJ24" s="48" t="s">
+      <c r="AH24" s="47"/>
+      <c r="AI24" s="49"/>
+      <c r="AJ24" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="AK24" s="4"/>
-      <c r="AL24" s="4"/>
     </row>
     <row r="25" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B25" s="7" t="s">
+      <c r="B25" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C25" s="5">
         <v>1</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="5">
         <v>101</v>
       </c>
-      <c r="E25" s="11">
+      <c r="E25" s="8">
         <f>(G13*D25)*C25</f>
         <v>80.800000000000011</v>
       </c>
-      <c r="U25" s="7" t="s">
+      <c r="U25" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="V25" s="7">
+      <c r="V25" s="5">
         <v>4</v>
       </c>
-      <c r="W25" s="7">
+      <c r="W25" s="5">
         <v>5.1999999999999998E-2</v>
       </c>
-      <c r="X25" s="8">
+      <c r="X25" s="6">
         <f>(Z20*W25)*V25</f>
         <v>2.496</v>
       </c>
-      <c r="AA25" s="74"/>
-      <c r="AB25" s="51"/>
-      <c r="AC25" s="80"/>
-      <c r="AD25" s="77"/>
-      <c r="AE25" s="81" t="s">
+      <c r="AA25" s="68"/>
+      <c r="AB25" s="48"/>
+      <c r="AC25" s="74"/>
+      <c r="AD25" s="71"/>
+      <c r="AE25" s="75" t="s">
         <v>38</v>
       </c>
-      <c r="AF25" s="79" t="s">
+      <c r="AF25" s="73" t="s">
         <v>39</v>
       </c>
-      <c r="AG25" s="31" t="s">
+      <c r="AG25" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="AH25" s="31" t="s">
+      <c r="AH25" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="AI25" s="31" t="s">
+      <c r="AI25" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="AJ25" s="53"/>
-      <c r="AK25" s="4"/>
-      <c r="AL25" s="4"/>
+      <c r="AJ25" s="50"/>
     </row>
     <row r="26" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="U26" s="7" t="s">
+      <c r="U26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="V26" s="7">
+      <c r="V26" s="5">
         <v>2</v>
       </c>
-      <c r="W26" s="7">
+      <c r="W26" s="5">
         <v>1.5780000000000001</v>
       </c>
-      <c r="X26" s="8">
+      <c r="X26" s="6">
         <f>(Z20*W26)*V26</f>
         <v>37.872</v>
       </c>
-      <c r="AA26" s="7">
+      <c r="AA26" s="5">
         <v>1</v>
       </c>
-      <c r="AB26" s="68" t="s">
+      <c r="AB26" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="AC26" s="8">
+      <c r="AC26" s="6">
         <v>50</v>
       </c>
-      <c r="AD26" s="82"/>
-      <c r="AE26" s="7">
+      <c r="AD26" s="76"/>
+      <c r="AE26" s="5">
         <v>0.2</v>
       </c>
-      <c r="AF26" s="75">
+      <c r="AF26" s="69">
         <v>0.3</v>
       </c>
-      <c r="AG26" s="7"/>
-      <c r="AH26" s="7"/>
-      <c r="AI26" s="7"/>
-      <c r="AJ26" s="7">
+      <c r="AG26" s="5"/>
+      <c r="AH26" s="5"/>
+      <c r="AI26" s="5"/>
+      <c r="AJ26" s="5">
         <v>1</v>
       </c>
-      <c r="AK26" s="4"/>
-      <c r="AL26" s="4"/>
     </row>
     <row r="27" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="U27" s="7" t="s">
+      <c r="U27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="V27" s="7">
+      <c r="V27" s="5">
         <v>2</v>
       </c>
-      <c r="W27" s="7">
+      <c r="W27" s="5">
         <v>0.72599999999999998</v>
       </c>
-      <c r="X27" s="8">
+      <c r="X27" s="6">
         <f>(Z20*W27)*V27</f>
         <v>17.423999999999999</v>
       </c>
     </row>
     <row r="28" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="116" t="s">
+      <c r="B28" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="117"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="118"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="80"/>
       <c r="F28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G28" s="18">
+      <c r="G28" s="15">
         <v>12</v>
       </c>
-      <c r="U28" s="7" t="s">
+      <c r="U28" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="V28" s="7">
+      <c r="V28" s="5">
         <v>1</v>
       </c>
-      <c r="W28" s="7">
+      <c r="W28" s="5">
         <v>0.182</v>
       </c>
-      <c r="X28" s="8">
+      <c r="X28" s="6">
         <f>(Z20*W28)*V28</f>
         <v>2.1840000000000002</v>
       </c>
     </row>
     <row r="29" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="E29" s="76" t="s">
+      <c r="E29" s="70" t="s">
         <v>2</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G29" s="12">
+      <c r="G29" s="9">
         <f>SUM(E31)</f>
         <v>3.024</v>
       </c>
     </row>
     <row r="30" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="5"/>
+      <c r="B30" s="3"/>
       <c r="C30" s="1" t="s">
         <v>31</v>
       </c>
@@ -2626,22 +2559,41 @@
       </c>
     </row>
     <row r="31" spans="2:38" x14ac:dyDescent="0.25">
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="7">
         <v>2</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="7">
         <v>0.126</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E31" s="8">
         <f>(G28*D31)*C31</f>
         <v>3.024</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="J9:M11"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="H6:I8"/>
+    <mergeCell ref="J6:M8"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="AC9:AF11"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="AC12:AC13"/>
     <mergeCell ref="U20:X20"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="T1:Z2"/>
@@ -2658,25 +2610,6 @@
     <mergeCell ref="AA6:AB8"/>
     <mergeCell ref="AC6:AF8"/>
     <mergeCell ref="AG6:AJ6"/>
-    <mergeCell ref="AG7:AJ7"/>
-    <mergeCell ref="AC9:AF11"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="J9:M11"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="H6:I8"/>
-    <mergeCell ref="J6:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Endgültiges/Kostenrechnung.xlsx
+++ b/Endgültiges/Kostenrechnung.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Diplo\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4816100C-5DFC-4593-BBA1-6B20690BBF59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22EB704-D52E-4C01-BD2B-777EAD15D232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D6F9D0D-4BBF-4D5B-B860-0D5959743A1B}"/>
   </bookViews>
@@ -856,6 +856,102 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -865,23 +961,47 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -889,128 +1009,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1330,7 +1330,7 @@
   <dimension ref="A1:AO31"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="O27" sqref="O27"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,92 +1364,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="81" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="83"/>
-      <c r="T1" s="81" t="s">
+      <c r="I1" s="79"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="79"/>
+      <c r="L1" s="79"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="79"/>
+      <c r="Q1" s="79"/>
+      <c r="R1" s="79"/>
+      <c r="S1" s="80"/>
+      <c r="T1" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
-      <c r="X1" s="82"/>
-      <c r="Y1" s="82"/>
-      <c r="Z1" s="83"/>
-      <c r="AA1" s="81" t="s">
+      <c r="U1" s="79"/>
+      <c r="V1" s="79"/>
+      <c r="W1" s="79"/>
+      <c r="X1" s="79"/>
+      <c r="Y1" s="79"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="82"/>
-      <c r="AG1" s="82"/>
-      <c r="AH1" s="82"/>
-      <c r="AI1" s="82"/>
-      <c r="AJ1" s="82"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="83"/>
+      <c r="AB1" s="79"/>
+      <c r="AC1" s="79"/>
+      <c r="AD1" s="79"/>
+      <c r="AE1" s="79"/>
+      <c r="AF1" s="79"/>
+      <c r="AG1" s="79"/>
+      <c r="AH1" s="79"/>
+      <c r="AI1" s="79"/>
+      <c r="AJ1" s="79"/>
+      <c r="AK1" s="79"/>
+      <c r="AL1" s="80"/>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="85"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="M2" s="85"/>
-      <c r="N2" s="85"/>
-      <c r="O2" s="85"/>
-      <c r="P2" s="85"/>
-      <c r="Q2" s="85"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="86"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="85"/>
-      <c r="V2" s="85"/>
-      <c r="W2" s="85"/>
-      <c r="X2" s="85"/>
-      <c r="Y2" s="85"/>
-      <c r="Z2" s="86"/>
-      <c r="AA2" s="84"/>
-      <c r="AB2" s="85"/>
-      <c r="AC2" s="85"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="85"/>
-      <c r="AF2" s="85"/>
-      <c r="AG2" s="85"/>
-      <c r="AH2" s="85"/>
-      <c r="AI2" s="85"/>
-      <c r="AJ2" s="85"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="86"/>
+      <c r="A2" s="81"/>
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="83"/>
+      <c r="H2" s="81"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="83"/>
+      <c r="T2" s="81"/>
+      <c r="U2" s="82"/>
+      <c r="V2" s="82"/>
+      <c r="W2" s="82"/>
+      <c r="X2" s="82"/>
+      <c r="Y2" s="82"/>
+      <c r="Z2" s="83"/>
+      <c r="AA2" s="81"/>
+      <c r="AB2" s="82"/>
+      <c r="AC2" s="82"/>
+      <c r="AD2" s="82"/>
+      <c r="AE2" s="82"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="82"/>
+      <c r="AI2" s="82"/>
+      <c r="AJ2" s="82"/>
+      <c r="AK2" s="82"/>
+      <c r="AL2" s="83"/>
     </row>
     <row r="4" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -1473,18 +1473,18 @@
         <f>G14</f>
         <v>1927.1999999999998</v>
       </c>
-      <c r="H5" s="78" t="s">
+      <c r="H5" s="110" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="79"/>
-      <c r="L5" s="79"/>
-      <c r="M5" s="79"/>
-      <c r="N5" s="79"/>
-      <c r="O5" s="79"/>
-      <c r="P5" s="79"/>
-      <c r="Q5" s="80"/>
+      <c r="I5" s="111"/>
+      <c r="J5" s="111"/>
+      <c r="K5" s="111"/>
+      <c r="L5" s="111"/>
+      <c r="M5" s="111"/>
+      <c r="N5" s="111"/>
+      <c r="O5" s="111"/>
+      <c r="P5" s="111"/>
+      <c r="Q5" s="112"/>
       <c r="R5" s="2" t="s">
         <v>50</v>
       </c>
@@ -1500,18 +1500,18 @@
         <f>Z14</f>
         <v>601.6</v>
       </c>
-      <c r="AA5" s="78" t="s">
+      <c r="AA5" s="110" t="s">
         <v>52</v>
       </c>
-      <c r="AB5" s="79"/>
-      <c r="AC5" s="79"/>
-      <c r="AD5" s="79"/>
-      <c r="AE5" s="79"/>
-      <c r="AF5" s="79"/>
-      <c r="AG5" s="79"/>
-      <c r="AH5" s="79"/>
-      <c r="AI5" s="79"/>
-      <c r="AJ5" s="80"/>
+      <c r="AB5" s="111"/>
+      <c r="AC5" s="111"/>
+      <c r="AD5" s="111"/>
+      <c r="AE5" s="111"/>
+      <c r="AF5" s="111"/>
+      <c r="AG5" s="111"/>
+      <c r="AH5" s="111"/>
+      <c r="AI5" s="111"/>
+      <c r="AJ5" s="112"/>
       <c r="AK5" s="2" t="s">
         <v>50</v>
       </c>
@@ -1533,47 +1533,47 @@
       </c>
       <c r="C6" s="6">
         <f>G29</f>
-        <v>3.024</v>
-      </c>
-      <c r="H6" s="96" t="s">
+        <v>2.016</v>
+      </c>
+      <c r="H6" s="113" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="97"/>
-      <c r="J6" s="102" t="s">
+      <c r="I6" s="114"/>
+      <c r="J6" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="103"/>
-      <c r="L6" s="103"/>
-      <c r="M6" s="104"/>
-      <c r="N6" s="111" t="s">
+      <c r="K6" s="119"/>
+      <c r="L6" s="119"/>
+      <c r="M6" s="120"/>
+      <c r="N6" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="112"/>
-      <c r="P6" s="112"/>
-      <c r="Q6" s="113"/>
+      <c r="O6" s="105"/>
+      <c r="P6" s="105"/>
+      <c r="Q6" s="106"/>
       <c r="U6" s="5" t="s">
         <v>60</v>
       </c>
       <c r="V6" s="6">
         <f>Z21</f>
-        <v>75.983999999999995</v>
-      </c>
-      <c r="AA6" s="96" t="s">
+        <v>50.656000000000006</v>
+      </c>
+      <c r="AA6" s="113" t="s">
         <v>54</v>
       </c>
-      <c r="AB6" s="97"/>
-      <c r="AC6" s="102" t="s">
+      <c r="AB6" s="114"/>
+      <c r="AC6" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="AD6" s="103"/>
-      <c r="AE6" s="103"/>
-      <c r="AF6" s="104"/>
-      <c r="AG6" s="111" t="s">
+      <c r="AD6" s="119"/>
+      <c r="AE6" s="119"/>
+      <c r="AF6" s="120"/>
+      <c r="AG6" s="104" t="s">
         <v>48</v>
       </c>
-      <c r="AH6" s="112"/>
-      <c r="AI6" s="112"/>
-      <c r="AJ6" s="113"/>
+      <c r="AH6" s="105"/>
+      <c r="AI6" s="105"/>
+      <c r="AJ6" s="106"/>
       <c r="AN6" s="5" t="s">
         <v>59</v>
       </c>
@@ -1589,18 +1589,18 @@
         <f>S5</f>
         <v>124.2</v>
       </c>
-      <c r="H7" s="98"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="105"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="114">
+      <c r="H7" s="115"/>
+      <c r="I7" s="116"/>
+      <c r="J7" s="121"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="107">
         <v>2</v>
       </c>
-      <c r="O7" s="115"/>
-      <c r="P7" s="115"/>
-      <c r="Q7" s="116"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="108"/>
+      <c r="Q7" s="109"/>
       <c r="U7" s="5" t="s">
         <v>21</v>
       </c>
@@ -1608,18 +1608,18 @@
         <f>AL5+AL17</f>
         <v>1499.6</v>
       </c>
-      <c r="AA7" s="98"/>
-      <c r="AB7" s="99"/>
-      <c r="AC7" s="105"/>
-      <c r="AD7" s="106"/>
-      <c r="AE7" s="106"/>
-      <c r="AF7" s="107"/>
-      <c r="AG7" s="114">
+      <c r="AA7" s="115"/>
+      <c r="AB7" s="116"/>
+      <c r="AC7" s="121"/>
+      <c r="AD7" s="122"/>
+      <c r="AE7" s="122"/>
+      <c r="AF7" s="123"/>
+      <c r="AG7" s="107">
         <v>4</v>
       </c>
-      <c r="AH7" s="115"/>
-      <c r="AI7" s="115"/>
-      <c r="AJ7" s="116"/>
+      <c r="AH7" s="108"/>
+      <c r="AI7" s="108"/>
+      <c r="AJ7" s="109"/>
       <c r="AN7" s="5" t="s">
         <v>60</v>
       </c>
@@ -1638,12 +1638,12 @@
       <c r="D8" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="100"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="110"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="118"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="125"/>
+      <c r="M8" s="126"/>
       <c r="N8" s="25"/>
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
@@ -1658,12 +1658,12 @@
       <c r="W8" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="AA8" s="100"/>
-      <c r="AB8" s="101"/>
-      <c r="AC8" s="108"/>
-      <c r="AD8" s="109"/>
-      <c r="AE8" s="109"/>
-      <c r="AF8" s="110"/>
+      <c r="AA8" s="117"/>
+      <c r="AB8" s="118"/>
+      <c r="AC8" s="124"/>
+      <c r="AD8" s="125"/>
+      <c r="AE8" s="125"/>
+      <c r="AF8" s="126"/>
       <c r="AG8" s="25"/>
       <c r="AH8" s="27"/>
       <c r="AI8" s="27"/>
@@ -1692,12 +1692,12 @@
         <f>N7*N10+((J14*M14)+(J14*L14))*N7</f>
         <v>108</v>
       </c>
-      <c r="J9" s="102" t="s">
+      <c r="J9" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="117"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="118"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
+      <c r="M9" s="89"/>
       <c r="N9" s="18" t="s">
         <v>32</v>
       </c>
@@ -1719,12 +1719,12 @@
         <f>AG7*AG10+((AC14*AF14)+(AC14*AE14))*AG7</f>
         <v>244</v>
       </c>
-      <c r="AC9" s="102" t="s">
+      <c r="AC9" s="87" t="s">
         <v>53</v>
       </c>
-      <c r="AD9" s="117"/>
-      <c r="AE9" s="117"/>
-      <c r="AF9" s="118"/>
+      <c r="AD9" s="88"/>
+      <c r="AE9" s="88"/>
+      <c r="AF9" s="89"/>
       <c r="AG9" s="18" t="s">
         <v>32</v>
       </c>
@@ -1745,7 +1745,7 @@
       </c>
       <c r="C10" s="9">
         <f>SUM(C4:C9)</f>
-        <v>3312.4239999999995</v>
+        <v>3311.4159999999997</v>
       </c>
       <c r="H10" s="22" t="s">
         <v>49</v>
@@ -1753,10 +1753,10 @@
       <c r="I10" s="61">
         <v>0.15</v>
       </c>
-      <c r="J10" s="119"/>
-      <c r="K10" s="120"/>
-      <c r="L10" s="120"/>
-      <c r="M10" s="121"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="91"/>
+      <c r="L10" s="91"/>
+      <c r="M10" s="92"/>
       <c r="N10" s="24">
         <v>24</v>
       </c>
@@ -1769,7 +1769,7 @@
       </c>
       <c r="V10" s="9">
         <f>SUM(V4:V9)</f>
-        <v>3385.1839999999997</v>
+        <v>3359.8559999999998</v>
       </c>
       <c r="AA10" s="22" t="s">
         <v>58</v>
@@ -1777,10 +1777,10 @@
       <c r="AB10" s="61">
         <v>0.15</v>
       </c>
-      <c r="AC10" s="119"/>
-      <c r="AD10" s="120"/>
-      <c r="AE10" s="120"/>
-      <c r="AF10" s="121"/>
+      <c r="AC10" s="90"/>
+      <c r="AD10" s="91"/>
+      <c r="AE10" s="91"/>
+      <c r="AF10" s="92"/>
       <c r="AG10" s="24">
         <v>36</v>
       </c>
@@ -1798,20 +1798,20 @@
     <row r="11" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H11" s="25"/>
       <c r="I11" s="54"/>
-      <c r="J11" s="122"/>
-      <c r="K11" s="128"/>
-      <c r="L11" s="128"/>
-      <c r="M11" s="129"/>
+      <c r="J11" s="93"/>
+      <c r="K11" s="94"/>
+      <c r="L11" s="94"/>
+      <c r="M11" s="95"/>
       <c r="N11" s="25"/>
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
       <c r="Q11" s="26"/>
       <c r="AA11" s="25"/>
       <c r="AB11" s="54"/>
-      <c r="AC11" s="122"/>
-      <c r="AD11" s="120"/>
-      <c r="AE11" s="120"/>
-      <c r="AF11" s="121"/>
+      <c r="AC11" s="93"/>
+      <c r="AD11" s="91"/>
+      <c r="AE11" s="91"/>
+      <c r="AF11" s="92"/>
       <c r="AG11" s="25"/>
       <c r="AH11" s="27"/>
       <c r="AI11" s="27"/>
@@ -1825,67 +1825,67 @@
       </c>
     </row>
     <row r="12" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="123" t="s">
+      <c r="H12" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="125" t="s">
+      <c r="I12" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="126" t="s">
+      <c r="J12" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="90" t="s">
+      <c r="K12" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="90"/>
-      <c r="M12" s="90"/>
-      <c r="N12" s="91" t="s">
+      <c r="L12" s="129"/>
+      <c r="M12" s="129"/>
+      <c r="N12" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="91"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="92" t="s">
+      <c r="O12" s="98"/>
+      <c r="P12" s="99"/>
+      <c r="Q12" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="AA12" s="123" t="s">
+      <c r="AA12" s="96" t="s">
         <v>33</v>
       </c>
-      <c r="AB12" s="125" t="s">
+      <c r="AB12" s="102" t="s">
         <v>51</v>
       </c>
-      <c r="AC12" s="126" t="s">
+      <c r="AC12" s="103" t="s">
         <v>34</v>
       </c>
-      <c r="AD12" s="89" t="s">
+      <c r="AD12" s="99" t="s">
         <v>35</v>
       </c>
-      <c r="AE12" s="90"/>
-      <c r="AF12" s="90"/>
-      <c r="AG12" s="91" t="s">
+      <c r="AE12" s="129"/>
+      <c r="AF12" s="129"/>
+      <c r="AG12" s="98" t="s">
         <v>36</v>
       </c>
-      <c r="AH12" s="91"/>
-      <c r="AI12" s="89"/>
-      <c r="AJ12" s="92" t="s">
+      <c r="AH12" s="98"/>
+      <c r="AI12" s="99"/>
+      <c r="AJ12" s="100" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="95"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="127"/>
+      <c r="C13" s="85"/>
+      <c r="D13" s="85"/>
+      <c r="E13" s="86"/>
       <c r="F13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="13">
         <v>0.8</v>
       </c>
-      <c r="H13" s="124"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
+      <c r="H13" s="97"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="103"/>
       <c r="K13" s="72"/>
       <c r="L13" s="28" t="s">
         <v>38</v>
@@ -1902,22 +1902,22 @@
       <c r="P13" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="93"/>
-      <c r="U13" s="94" t="s">
+      <c r="Q13" s="101"/>
+      <c r="U13" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="V13" s="95"/>
-      <c r="W13" s="95"/>
-      <c r="X13" s="127"/>
+      <c r="V13" s="85"/>
+      <c r="W13" s="85"/>
+      <c r="X13" s="86"/>
       <c r="Y13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z13" s="15">
         <v>0.8</v>
       </c>
-      <c r="AA13" s="124"/>
-      <c r="AB13" s="125"/>
-      <c r="AC13" s="126"/>
+      <c r="AA13" s="97"/>
+      <c r="AB13" s="102"/>
+      <c r="AC13" s="103"/>
       <c r="AD13" s="72"/>
       <c r="AE13" s="28" t="s">
         <v>38</v>
@@ -1934,7 +1934,7 @@
       <c r="AI13" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="AJ13" s="93"/>
+      <c r="AJ13" s="101"/>
     </row>
     <row r="14" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="70" t="s">
@@ -2100,18 +2100,18 @@
         <f>(Z13*W17)*V17</f>
         <v>300.8</v>
       </c>
-      <c r="AA17" s="94" t="s">
+      <c r="AA17" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="AB17" s="95"/>
-      <c r="AC17" s="79"/>
-      <c r="AD17" s="79"/>
-      <c r="AE17" s="79"/>
-      <c r="AF17" s="79"/>
-      <c r="AG17" s="79"/>
-      <c r="AH17" s="79"/>
-      <c r="AI17" s="79"/>
-      <c r="AJ17" s="80"/>
+      <c r="AB17" s="85"/>
+      <c r="AC17" s="111"/>
+      <c r="AD17" s="111"/>
+      <c r="AE17" s="111"/>
+      <c r="AF17" s="111"/>
+      <c r="AG17" s="111"/>
+      <c r="AH17" s="111"/>
+      <c r="AI17" s="111"/>
+      <c r="AJ17" s="112"/>
       <c r="AK17" s="2" t="s">
         <v>50</v>
       </c>
@@ -2134,10 +2134,10 @@
         <f>(G13*D18)*C18</f>
         <v>622.40000000000009</v>
       </c>
-      <c r="AA18" s="87" t="s">
+      <c r="AA18" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="AB18" s="87"/>
+      <c r="AB18" s="127"/>
       <c r="AC18" s="30" t="s">
         <v>44</v>
       </c>
@@ -2165,8 +2165,8 @@
         <f>(G13*D19)*C19</f>
         <v>179.20000000000002</v>
       </c>
-      <c r="AA19" s="87"/>
-      <c r="AB19" s="87"/>
+      <c r="AA19" s="127"/>
+      <c r="AB19" s="127"/>
       <c r="AC19" s="40"/>
       <c r="AD19" s="58"/>
       <c r="AE19" s="58"/>
@@ -2192,20 +2192,20 @@
         <f>(G13*D20)*C20</f>
         <v>192</v>
       </c>
-      <c r="U20" s="78" t="s">
+      <c r="U20" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="V20" s="79"/>
-      <c r="W20" s="79"/>
-      <c r="X20" s="80"/>
+      <c r="V20" s="111"/>
+      <c r="W20" s="111"/>
+      <c r="X20" s="112"/>
       <c r="Y20" s="2" t="s">
         <v>30</v>
       </c>
       <c r="Z20" s="15">
-        <v>12</v>
-      </c>
-      <c r="AA20" s="88"/>
-      <c r="AB20" s="87"/>
+        <v>8</v>
+      </c>
+      <c r="AA20" s="128"/>
+      <c r="AB20" s="127"/>
       <c r="AC20" s="42"/>
       <c r="AD20" s="43"/>
       <c r="AE20" s="43"/>
@@ -2247,7 +2247,7 @@
       </c>
       <c r="Z21" s="9">
         <f>SUM(X23:X28)</f>
-        <v>75.983999999999995</v>
+        <v>50.656000000000006</v>
       </c>
       <c r="AA21" s="18"/>
       <c r="AB21" s="19">
@@ -2335,7 +2335,7 @@
       </c>
       <c r="X23" s="6">
         <f>(Z20*W23)*V23</f>
-        <v>7.68</v>
+        <v>5.12</v>
       </c>
       <c r="AA23" s="25"/>
       <c r="AB23" s="54"/>
@@ -2373,7 +2373,7 @@
       </c>
       <c r="X24" s="6">
         <f>(Z20*W24)*V24</f>
-        <v>8.3279999999999994</v>
+        <v>5.5519999999999996</v>
       </c>
       <c r="AA24" s="66" t="s">
         <v>33</v>
@@ -2384,11 +2384,11 @@
       <c r="AC24" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AD24" s="90" t="s">
+      <c r="AD24" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="AE24" s="90"/>
-      <c r="AF24" s="90"/>
+      <c r="AE24" s="129"/>
+      <c r="AF24" s="129"/>
       <c r="AG24" s="48" t="s">
         <v>36</v>
       </c>
@@ -2423,7 +2423,7 @@
       </c>
       <c r="X25" s="6">
         <f>(Z20*W25)*V25</f>
-        <v>2.496</v>
+        <v>1.6639999999999999</v>
       </c>
       <c r="AA25" s="68"/>
       <c r="AB25" s="48"/>
@@ -2458,7 +2458,7 @@
       </c>
       <c r="X26" s="6">
         <f>(Z20*W26)*V26</f>
-        <v>37.872</v>
+        <v>25.248000000000001</v>
       </c>
       <c r="AA26" s="5">
         <v>1</v>
@@ -2495,21 +2495,21 @@
       </c>
       <c r="X27" s="6">
         <f>(Z20*W27)*V27</f>
-        <v>17.423999999999999</v>
+        <v>11.616</v>
       </c>
     </row>
     <row r="28" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="78" t="s">
+      <c r="B28" s="110" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="79"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="80"/>
+      <c r="C28" s="111"/>
+      <c r="D28" s="111"/>
+      <c r="E28" s="112"/>
       <c r="F28" s="2" t="s">
         <v>30</v>
       </c>
       <c r="G28" s="15">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="U28" s="5" t="s">
         <v>28</v>
@@ -2522,7 +2522,7 @@
       </c>
       <c r="X28" s="6">
         <f>(Z20*W28)*V28</f>
-        <v>2.1840000000000002</v>
+        <v>1.456</v>
       </c>
     </row>
     <row r="29" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2543,7 +2543,7 @@
       </c>
       <c r="G29" s="9">
         <f>SUM(E31)</f>
-        <v>3.024</v>
+        <v>2.016</v>
       </c>
     </row>
     <row r="30" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2570,30 +2570,11 @@
       </c>
       <c r="E31" s="8">
         <f>(G28*D31)*C31</f>
-        <v>3.024</v>
+        <v>2.016</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="J9:M11"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="H6:I8"/>
-    <mergeCell ref="J6:M8"/>
-    <mergeCell ref="AG7:AJ7"/>
-    <mergeCell ref="AC9:AF11"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="AC12:AC13"/>
     <mergeCell ref="U20:X20"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="T1:Z2"/>
@@ -2610,6 +2591,25 @@
     <mergeCell ref="AA6:AB8"/>
     <mergeCell ref="AC6:AF8"/>
     <mergeCell ref="AG6:AJ6"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="AC9:AF11"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="AC12:AC13"/>
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="J9:M11"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="H6:I8"/>
+    <mergeCell ref="J6:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Endgültiges/Kostenrechnung.xlsx
+++ b/Endgültiges/Kostenrechnung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\00_Diplo\Maturaprojekt\Endgültiges\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F22EB704-D52E-4C01-BD2B-777EAD15D232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9890173B-2AD1-4817-A766-A5B1D6484B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5D6F9D0D-4BBF-4D5B-B860-0D5959743A1B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="74">
   <si>
     <t>3D-Druckteile</t>
   </si>
@@ -256,6 +256,15 @@
   </si>
   <si>
     <t>Gesamt:</t>
+  </si>
+  <si>
+    <t>Preis --&gt;</t>
+  </si>
+  <si>
+    <t>1Kg E-Stahl --&gt;</t>
+  </si>
+  <si>
+    <t>Solarpaneele</t>
   </si>
 </sst>
 </file>
@@ -856,6 +865,15 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -874,144 +892,133 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -1329,8 +1336,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2F90BCB-C38A-4036-ADEE-3E3DA49246B1}">
   <dimension ref="A1:AO31"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" topLeftCell="S3" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="145" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="AB28" sqref="AB28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,92 +1371,92 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:41" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="78" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="80"/>
-      <c r="T1" s="78" t="s">
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="83"/>
+      <c r="T1" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
-      <c r="W1" s="79"/>
-      <c r="X1" s="79"/>
-      <c r="Y1" s="79"/>
-      <c r="Z1" s="80"/>
-      <c r="AA1" s="78" t="s">
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+      <c r="X1" s="82"/>
+      <c r="Y1" s="82"/>
+      <c r="Z1" s="83"/>
+      <c r="AA1" s="81" t="s">
         <v>20</v>
       </c>
-      <c r="AB1" s="79"/>
-      <c r="AC1" s="79"/>
-      <c r="AD1" s="79"/>
-      <c r="AE1" s="79"/>
-      <c r="AF1" s="79"/>
-      <c r="AG1" s="79"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="79"/>
-      <c r="AJ1" s="79"/>
-      <c r="AK1" s="79"/>
-      <c r="AL1" s="80"/>
+      <c r="AB1" s="82"/>
+      <c r="AC1" s="82"/>
+      <c r="AD1" s="82"/>
+      <c r="AE1" s="82"/>
+      <c r="AF1" s="82"/>
+      <c r="AG1" s="82"/>
+      <c r="AH1" s="82"/>
+      <c r="AI1" s="82"/>
+      <c r="AJ1" s="82"/>
+      <c r="AK1" s="82"/>
+      <c r="AL1" s="83"/>
     </row>
     <row r="2" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="81"/>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="83"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="82"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="81"/>
-      <c r="U2" s="82"/>
-      <c r="V2" s="82"/>
-      <c r="W2" s="82"/>
-      <c r="X2" s="82"/>
-      <c r="Y2" s="82"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="81"/>
-      <c r="AB2" s="82"/>
-      <c r="AC2" s="82"/>
-      <c r="AD2" s="82"/>
-      <c r="AE2" s="82"/>
-      <c r="AF2" s="82"/>
-      <c r="AG2" s="82"/>
-      <c r="AH2" s="82"/>
-      <c r="AI2" s="82"/>
-      <c r="AJ2" s="82"/>
-      <c r="AK2" s="82"/>
-      <c r="AL2" s="83"/>
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="85"/>
+      <c r="F2" s="85"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="M2" s="85"/>
+      <c r="N2" s="85"/>
+      <c r="O2" s="85"/>
+      <c r="P2" s="85"/>
+      <c r="Q2" s="85"/>
+      <c r="R2" s="85"/>
+      <c r="S2" s="86"/>
+      <c r="T2" s="84"/>
+      <c r="U2" s="85"/>
+      <c r="V2" s="85"/>
+      <c r="W2" s="85"/>
+      <c r="X2" s="85"/>
+      <c r="Y2" s="85"/>
+      <c r="Z2" s="86"/>
+      <c r="AA2" s="84"/>
+      <c r="AB2" s="85"/>
+      <c r="AC2" s="85"/>
+      <c r="AD2" s="85"/>
+      <c r="AE2" s="85"/>
+      <c r="AF2" s="85"/>
+      <c r="AG2" s="85"/>
+      <c r="AH2" s="85"/>
+      <c r="AI2" s="85"/>
+      <c r="AJ2" s="85"/>
+      <c r="AK2" s="85"/>
+      <c r="AL2" s="86"/>
     </row>
     <row r="4" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
@@ -1473,18 +1480,18 @@
         <f>G14</f>
         <v>1927.1999999999998</v>
       </c>
-      <c r="H5" s="110" t="s">
+      <c r="H5" s="78" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="111"/>
-      <c r="J5" s="111"/>
-      <c r="K5" s="111"/>
-      <c r="L5" s="111"/>
-      <c r="M5" s="111"/>
-      <c r="N5" s="111"/>
-      <c r="O5" s="111"/>
-      <c r="P5" s="111"/>
-      <c r="Q5" s="112"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
+      <c r="O5" s="79"/>
+      <c r="P5" s="79"/>
+      <c r="Q5" s="80"/>
       <c r="R5" s="2" t="s">
         <v>50</v>
       </c>
@@ -1500,24 +1507,24 @@
         <f>Z14</f>
         <v>601.6</v>
       </c>
-      <c r="AA5" s="110" t="s">
+      <c r="AA5" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="AB5" s="111"/>
-      <c r="AC5" s="111"/>
-      <c r="AD5" s="111"/>
-      <c r="AE5" s="111"/>
-      <c r="AF5" s="111"/>
-      <c r="AG5" s="111"/>
-      <c r="AH5" s="111"/>
-      <c r="AI5" s="111"/>
-      <c r="AJ5" s="112"/>
+      <c r="AB5" s="79"/>
+      <c r="AC5" s="79"/>
+      <c r="AD5" s="79"/>
+      <c r="AE5" s="79"/>
+      <c r="AF5" s="79"/>
+      <c r="AG5" s="79"/>
+      <c r="AH5" s="79"/>
+      <c r="AI5" s="79"/>
+      <c r="AJ5" s="80"/>
       <c r="AK5" s="2" t="s">
         <v>50</v>
       </c>
       <c r="AL5" s="12">
         <f>AB9+AB9*AB10</f>
-        <v>280.60000000000002</v>
+        <v>244</v>
       </c>
       <c r="AN5" s="5" t="s">
         <v>69</v>
@@ -1535,22 +1542,22 @@
         <f>G29</f>
         <v>2.016</v>
       </c>
-      <c r="H6" s="113" t="s">
+      <c r="H6" s="95" t="s">
         <v>45</v>
       </c>
-      <c r="I6" s="114"/>
-      <c r="J6" s="87" t="s">
+      <c r="I6" s="96"/>
+      <c r="J6" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="104" t="s">
+      <c r="K6" s="102"/>
+      <c r="L6" s="102"/>
+      <c r="M6" s="103"/>
+      <c r="N6" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="O6" s="105"/>
-      <c r="P6" s="105"/>
-      <c r="Q6" s="106"/>
+      <c r="O6" s="111"/>
+      <c r="P6" s="111"/>
+      <c r="Q6" s="112"/>
       <c r="U6" s="5" t="s">
         <v>60</v>
       </c>
@@ -1558,22 +1565,22 @@
         <f>Z21</f>
         <v>50.656000000000006</v>
       </c>
-      <c r="AA6" s="113" t="s">
+      <c r="AA6" s="95" t="s">
         <v>54</v>
       </c>
-      <c r="AB6" s="114"/>
-      <c r="AC6" s="87" t="s">
+      <c r="AB6" s="96"/>
+      <c r="AC6" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="AD6" s="119"/>
-      <c r="AE6" s="119"/>
-      <c r="AF6" s="120"/>
-      <c r="AG6" s="104" t="s">
+      <c r="AD6" s="102"/>
+      <c r="AE6" s="102"/>
+      <c r="AF6" s="103"/>
+      <c r="AG6" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="AH6" s="105"/>
-      <c r="AI6" s="105"/>
-      <c r="AJ6" s="106"/>
+      <c r="AH6" s="111"/>
+      <c r="AI6" s="111"/>
+      <c r="AJ6" s="112"/>
       <c r="AN6" s="5" t="s">
         <v>59</v>
       </c>
@@ -1589,37 +1596,37 @@
         <f>S5</f>
         <v>124.2</v>
       </c>
-      <c r="H7" s="115"/>
-      <c r="I7" s="116"/>
-      <c r="J7" s="121"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="107">
+      <c r="H7" s="97"/>
+      <c r="I7" s="98"/>
+      <c r="J7" s="104"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="106"/>
+      <c r="N7" s="113">
         <v>2</v>
       </c>
-      <c r="O7" s="108"/>
-      <c r="P7" s="108"/>
-      <c r="Q7" s="109"/>
+      <c r="O7" s="114"/>
+      <c r="P7" s="114"/>
+      <c r="Q7" s="115"/>
       <c r="U7" s="5" t="s">
         <v>21</v>
       </c>
       <c r="V7" s="56">
         <f>AL5+AL17</f>
-        <v>1499.6</v>
-      </c>
-      <c r="AA7" s="115"/>
-      <c r="AB7" s="116"/>
-      <c r="AC7" s="121"/>
-      <c r="AD7" s="122"/>
-      <c r="AE7" s="122"/>
-      <c r="AF7" s="123"/>
-      <c r="AG7" s="107">
+        <v>1304</v>
+      </c>
+      <c r="AA7" s="97"/>
+      <c r="AB7" s="98"/>
+      <c r="AC7" s="104"/>
+      <c r="AD7" s="105"/>
+      <c r="AE7" s="105"/>
+      <c r="AF7" s="106"/>
+      <c r="AG7" s="113">
         <v>4</v>
       </c>
-      <c r="AH7" s="108"/>
-      <c r="AI7" s="108"/>
-      <c r="AJ7" s="109"/>
+      <c r="AH7" s="114"/>
+      <c r="AI7" s="114"/>
+      <c r="AJ7" s="115"/>
       <c r="AN7" s="5" t="s">
         <v>60</v>
       </c>
@@ -1638,12 +1645,12 @@
       <c r="D8" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="H8" s="117"/>
-      <c r="I8" s="118"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="125"/>
-      <c r="M8" s="126"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="107"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="109"/>
       <c r="N8" s="25"/>
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
@@ -1658,12 +1665,12 @@
       <c r="W8" s="65" t="s">
         <v>63</v>
       </c>
-      <c r="AA8" s="117"/>
-      <c r="AB8" s="118"/>
-      <c r="AC8" s="124"/>
-      <c r="AD8" s="125"/>
-      <c r="AE8" s="125"/>
-      <c r="AF8" s="126"/>
+      <c r="AA8" s="99"/>
+      <c r="AB8" s="100"/>
+      <c r="AC8" s="107"/>
+      <c r="AD8" s="108"/>
+      <c r="AE8" s="108"/>
+      <c r="AF8" s="109"/>
       <c r="AG8" s="25"/>
       <c r="AH8" s="27"/>
       <c r="AI8" s="27"/>
@@ -1692,12 +1699,12 @@
         <f>N7*N10+((J14*M14)+(J14*L14))*N7</f>
         <v>108</v>
       </c>
-      <c r="J9" s="87" t="s">
+      <c r="J9" s="101" t="s">
         <v>46</v>
       </c>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
-      <c r="M9" s="89"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="116"/>
+      <c r="M9" s="117"/>
       <c r="N9" s="18" t="s">
         <v>32</v>
       </c>
@@ -1719,12 +1726,12 @@
         <f>AG7*AG10+((AC14*AF14)+(AC14*AE14))*AG7</f>
         <v>244</v>
       </c>
-      <c r="AC9" s="87" t="s">
+      <c r="AC9" s="101" t="s">
         <v>53</v>
       </c>
-      <c r="AD9" s="88"/>
-      <c r="AE9" s="88"/>
-      <c r="AF9" s="89"/>
+      <c r="AD9" s="116"/>
+      <c r="AE9" s="116"/>
+      <c r="AF9" s="117"/>
       <c r="AG9" s="18" t="s">
         <v>32</v>
       </c>
@@ -1753,10 +1760,10 @@
       <c r="I10" s="61">
         <v>0.15</v>
       </c>
-      <c r="J10" s="90"/>
-      <c r="K10" s="91"/>
-      <c r="L10" s="91"/>
-      <c r="M10" s="92"/>
+      <c r="J10" s="118"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="119"/>
+      <c r="M10" s="120"/>
       <c r="N10" s="24">
         <v>24</v>
       </c>
@@ -1769,18 +1776,18 @@
       </c>
       <c r="V10" s="9">
         <f>SUM(V4:V9)</f>
-        <v>3359.8559999999998</v>
+        <v>3164.2559999999999</v>
       </c>
       <c r="AA10" s="22" t="s">
         <v>58</v>
       </c>
       <c r="AB10" s="61">
-        <v>0.15</v>
-      </c>
-      <c r="AC10" s="90"/>
-      <c r="AD10" s="91"/>
-      <c r="AE10" s="91"/>
-      <c r="AF10" s="92"/>
+        <v>0</v>
+      </c>
+      <c r="AC10" s="118"/>
+      <c r="AD10" s="119"/>
+      <c r="AE10" s="119"/>
+      <c r="AF10" s="120"/>
       <c r="AG10" s="24">
         <v>36</v>
       </c>
@@ -1798,20 +1805,20 @@
     <row r="11" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H11" s="25"/>
       <c r="I11" s="54"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="95"/>
+      <c r="J11" s="121"/>
+      <c r="K11" s="127"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="128"/>
       <c r="N11" s="25"/>
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
       <c r="Q11" s="26"/>
       <c r="AA11" s="25"/>
       <c r="AB11" s="54"/>
-      <c r="AC11" s="93"/>
-      <c r="AD11" s="91"/>
-      <c r="AE11" s="91"/>
-      <c r="AF11" s="92"/>
+      <c r="AC11" s="121"/>
+      <c r="AD11" s="119"/>
+      <c r="AE11" s="119"/>
+      <c r="AF11" s="120"/>
       <c r="AG11" s="25"/>
       <c r="AH11" s="27"/>
       <c r="AI11" s="27"/>
@@ -1825,67 +1832,67 @@
       </c>
     </row>
     <row r="12" spans="1:41" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H12" s="96" t="s">
+      <c r="H12" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="I12" s="102" t="s">
+      <c r="I12" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="J12" s="103" t="s">
+      <c r="J12" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="K12" s="129" t="s">
+      <c r="K12" s="89" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="98" t="s">
+      <c r="L12" s="89"/>
+      <c r="M12" s="89"/>
+      <c r="N12" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="O12" s="98"/>
-      <c r="P12" s="99"/>
-      <c r="Q12" s="100" t="s">
+      <c r="O12" s="90"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="91" t="s">
         <v>37</v>
       </c>
-      <c r="AA12" s="96" t="s">
+      <c r="AA12" s="122" t="s">
         <v>33</v>
       </c>
-      <c r="AB12" s="102" t="s">
+      <c r="AB12" s="124" t="s">
         <v>51</v>
       </c>
-      <c r="AC12" s="103" t="s">
+      <c r="AC12" s="125" t="s">
         <v>34</v>
       </c>
-      <c r="AD12" s="99" t="s">
+      <c r="AD12" s="88" t="s">
         <v>35</v>
       </c>
-      <c r="AE12" s="129"/>
-      <c r="AF12" s="129"/>
-      <c r="AG12" s="98" t="s">
+      <c r="AE12" s="89"/>
+      <c r="AF12" s="89"/>
+      <c r="AG12" s="90" t="s">
         <v>36</v>
       </c>
-      <c r="AH12" s="98"/>
-      <c r="AI12" s="99"/>
-      <c r="AJ12" s="100" t="s">
+      <c r="AH12" s="90"/>
+      <c r="AI12" s="88"/>
+      <c r="AJ12" s="91" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="84" t="s">
+      <c r="B13" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="85"/>
-      <c r="D13" s="85"/>
-      <c r="E13" s="86"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="126"/>
       <c r="F13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G13" s="13">
         <v>0.8</v>
       </c>
-      <c r="H13" s="97"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="103"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="125"/>
       <c r="K13" s="72"/>
       <c r="L13" s="28" t="s">
         <v>38</v>
@@ -1902,22 +1909,22 @@
       <c r="P13" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="Q13" s="101"/>
-      <c r="U13" s="84" t="s">
+      <c r="Q13" s="92"/>
+      <c r="U13" s="93" t="s">
         <v>0</v>
       </c>
-      <c r="V13" s="85"/>
-      <c r="W13" s="85"/>
-      <c r="X13" s="86"/>
+      <c r="V13" s="94"/>
+      <c r="W13" s="94"/>
+      <c r="X13" s="126"/>
       <c r="Y13" s="2" t="s">
         <v>3</v>
       </c>
       <c r="Z13" s="15">
         <v>0.8</v>
       </c>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="102"/>
-      <c r="AC13" s="103"/>
+      <c r="AA13" s="123"/>
+      <c r="AB13" s="124"/>
+      <c r="AC13" s="125"/>
       <c r="AD13" s="72"/>
       <c r="AE13" s="28" t="s">
         <v>38</v>
@@ -1934,7 +1941,7 @@
       <c r="AI13" s="28" t="s">
         <v>42</v>
       </c>
-      <c r="AJ13" s="101"/>
+      <c r="AJ13" s="92"/>
     </row>
     <row r="14" spans="1:41" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="70" t="s">
@@ -1992,7 +1999,7 @@
         <v>2</v>
       </c>
       <c r="Y14" s="2" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="Z14" s="9">
         <f>SUM(X16:X17)</f>
@@ -2100,24 +2107,24 @@
         <f>(Z13*W17)*V17</f>
         <v>300.8</v>
       </c>
-      <c r="AA17" s="84" t="s">
+      <c r="AA17" s="93" t="s">
         <v>55</v>
       </c>
-      <c r="AB17" s="85"/>
-      <c r="AC17" s="111"/>
-      <c r="AD17" s="111"/>
-      <c r="AE17" s="111"/>
-      <c r="AF17" s="111"/>
-      <c r="AG17" s="111"/>
-      <c r="AH17" s="111"/>
-      <c r="AI17" s="111"/>
-      <c r="AJ17" s="112"/>
+      <c r="AB17" s="94"/>
+      <c r="AC17" s="79"/>
+      <c r="AD17" s="79"/>
+      <c r="AE17" s="79"/>
+      <c r="AF17" s="79"/>
+      <c r="AG17" s="79"/>
+      <c r="AH17" s="79"/>
+      <c r="AI17" s="79"/>
+      <c r="AJ17" s="80"/>
       <c r="AK17" s="2" t="s">
         <v>50</v>
       </c>
       <c r="AL17" s="12">
         <f>AB21+AB21*AB22</f>
-        <v>1219</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="18" spans="2:38" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -2134,10 +2141,10 @@
         <f>(G13*D18)*C18</f>
         <v>622.40000000000009</v>
       </c>
-      <c r="AA18" s="127" t="s">
+      <c r="AA18" s="87" t="s">
         <v>56</v>
       </c>
-      <c r="AB18" s="127"/>
+      <c r="AB18" s="87"/>
       <c r="AC18" s="30" t="s">
         <v>44</v>
       </c>
@@ -2165,8 +2172,8 @@
         <f>(G13*D19)*C19</f>
         <v>179.20000000000002</v>
       </c>
-      <c r="AA19" s="127"/>
-      <c r="AB19" s="127"/>
+      <c r="AA19" s="87"/>
+      <c r="AB19" s="87"/>
       <c r="AC19" s="40"/>
       <c r="AD19" s="58"/>
       <c r="AE19" s="58"/>
@@ -2192,20 +2199,20 @@
         <f>(G13*D20)*C20</f>
         <v>192</v>
       </c>
-      <c r="U20" s="110" t="s">
+      <c r="U20" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="V20" s="111"/>
-      <c r="W20" s="111"/>
-      <c r="X20" s="112"/>
+      <c r="V20" s="79"/>
+      <c r="W20" s="79"/>
+      <c r="X20" s="80"/>
       <c r="Y20" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="Z20" s="15">
+        <v>72</v>
+      </c>
+      <c r="Z20" s="129">
         <v>8</v>
       </c>
-      <c r="AA20" s="128"/>
-      <c r="AB20" s="127"/>
+      <c r="AA20" s="87"/>
+      <c r="AB20" s="87"/>
       <c r="AC20" s="42"/>
       <c r="AD20" s="43"/>
       <c r="AE20" s="43"/>
@@ -2243,7 +2250,7 @@
         <v>2</v>
       </c>
       <c r="Y21" s="2" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="Z21" s="9">
         <f>SUM(X23:X28)</f>
@@ -2296,7 +2303,7 @@
         <v>58</v>
       </c>
       <c r="AB22" s="61">
-        <v>0.15</v>
+        <v>0</v>
       </c>
       <c r="AC22" s="32"/>
       <c r="AD22" s="36"/>
@@ -2384,11 +2391,11 @@
       <c r="AC24" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="AD24" s="129" t="s">
+      <c r="AD24" s="89" t="s">
         <v>35</v>
       </c>
-      <c r="AE24" s="129"/>
-      <c r="AF24" s="129"/>
+      <c r="AE24" s="89"/>
+      <c r="AF24" s="89"/>
       <c r="AG24" s="48" t="s">
         <v>36</v>
       </c>
@@ -2499,12 +2506,12 @@
       </c>
     </row>
     <row r="28" spans="2:38" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="110" t="s">
+      <c r="B28" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="112"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="80"/>
       <c r="F28" s="2" t="s">
         <v>30</v>
       </c>
@@ -2572,9 +2579,31 @@
         <f>(G28*D31)*C31</f>
         <v>2.016</v>
       </c>
+      <c r="U31" t="s">
+        <v>73</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="A1:G2"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="J9:M11"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="Q12:Q13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="H5:Q5"/>
+    <mergeCell ref="H6:I8"/>
+    <mergeCell ref="J6:M8"/>
+    <mergeCell ref="AG7:AJ7"/>
+    <mergeCell ref="AC9:AF11"/>
+    <mergeCell ref="AA12:AA13"/>
+    <mergeCell ref="AB12:AB13"/>
+    <mergeCell ref="AC12:AC13"/>
     <mergeCell ref="U20:X20"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="T1:Z2"/>
@@ -2591,25 +2620,6 @@
     <mergeCell ref="AA6:AB8"/>
     <mergeCell ref="AC6:AF8"/>
     <mergeCell ref="AG6:AJ6"/>
-    <mergeCell ref="AG7:AJ7"/>
-    <mergeCell ref="AC9:AF11"/>
-    <mergeCell ref="AA12:AA13"/>
-    <mergeCell ref="AB12:AB13"/>
-    <mergeCell ref="AC12:AC13"/>
-    <mergeCell ref="A1:G2"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="J9:M11"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="N12:P12"/>
-    <mergeCell ref="Q12:Q13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="N6:Q6"/>
-    <mergeCell ref="N7:Q7"/>
-    <mergeCell ref="H5:Q5"/>
-    <mergeCell ref="H6:I8"/>
-    <mergeCell ref="J6:M8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
